--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5BE1B-D639-4639-AAF3-B872E7EA6DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF56B7A-2851-4436-9D8E-600B02E5E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -338,12 +338,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -356,12 +350,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -369,12 +357,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -402,11 +384,29 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,7 +619,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53488372093023251</c:v>
+                  <c:v>0.55813953488372092</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.9215686274509803E-2</c:v>
@@ -6448,195 +6448,195 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="17" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="19">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
         <v>15</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="20">
         <f>DATE(2022,8,17)</f>
         <v>44790</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="12" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="13">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.53488372093023251</v>
-      </c>
-      <c r="C2" s="20" t="s">
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="19">
         <f ca="1">F1-TODAY()</f>
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="str">
+      <c r="A3" s="9" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>3.9076506665055112E-2</v>
+        <v>4.0626894261954337E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="str">
+      <c r="A4" s="9" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="13">
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>332.68071046958477</v>
+        <v>319.98507973999983</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45091.680710469584</v>
+        <v>45078.985079739999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="str">
+      <c r="A6" s="9" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="16">
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="str">
+      <c r="A7" s="9" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="16">
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="str">
+      <c r="A8" s="9" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
+      <c r="A10" s="9" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="16">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="str">
+      <c r="A11" s="9" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="16">
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="9" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="16">
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="str">
+      <c r="A14" s="9" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="16">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="9" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="16">
         <f>Git!A3*100%/Git!B3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
+      <c r="A18" s="9" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="16">
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
+      <c r="A19" s="9" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="16">
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
@@ -6652,7 +6652,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6667,68 +6667,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>45</v>
       </c>
     </row>
@@ -6759,68 +6759,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>288</v>
       </c>
     </row>
@@ -6850,68 +6850,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>33</v>
       </c>
     </row>
@@ -6941,24 +6941,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>56</v>
       </c>
     </row>
@@ -6985,24 +6985,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>19</v>
       </c>
     </row>
@@ -7030,24 +7030,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>95</v>
       </c>
       <c r="C3" s="2"/>
@@ -7055,24 +7055,24 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>0</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
     </row>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF56B7A-2851-4436-9D8E-600B02E5E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A6040A-B04C-42F2-9274-5B2B08F0E28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +622,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.55813953488372092</c:v>
+                  <c:v>0.58139534883720934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9215686274509803E-2</c:v>
+                  <c:v>6.741573033707865E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6448,7 +6451,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6488,7 +6491,7 @@
       </c>
       <c r="B2" s="13">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.55813953488372092</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
@@ -6505,15 +6508,16 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>3.9215686274509803E-2</v>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.0626894261954337E-2</v>
-      </c>
+        <v>4.4057284796358162E-2</v>
+      </c>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
@@ -6529,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>319.98507973999983</v>
+        <v>295.07038529697587</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6538,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45078.985079739999</v>
+        <v>45054.070385296975</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6643,6 +6647,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6652,7 +6657,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6682,7 +6687,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>
@@ -6704,10 +6709,10 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="29">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A6040A-B04C-42F2-9274-5B2B08F0E28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CD8CE-8531-4946-A94A-FB5F24BB02A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -390,6 +390,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,9 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +625,7 @@
                   <c:v>0.58139534883720934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.741573033707865E-2</c:v>
+                  <c:v>6.7039106145251395E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6508,14 +6508,14 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>6.741573033707865E-2</v>
+        <v>6.7039106145251395E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.4057284796358162E-2</v>
+        <v>4.4032176516903013E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>295.07038529697587</v>
+        <v>295.2386420191965</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45054.070385296975</v>
+        <v>45054.238642019198</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6672,10 +6672,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6694,10 +6694,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6711,15 +6711,15 @@
       <c r="A6" s="5">
         <v>12</v>
       </c>
-      <c r="B6" s="29">
-        <v>178</v>
+      <c r="B6" s="23">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -6764,10 +6764,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6786,10 +6786,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6808,10 +6808,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -6855,10 +6855,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6877,10 +6877,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6899,10 +6899,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -6946,10 +6946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6990,10 +6990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7035,10 +7035,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -7060,10 +7060,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CD8CE-8531-4946-A94A-FB5F24BB02A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627F21A-5486-4096-9203-9C96D6B70945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -6451,7 +6451,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627F21A-5486-4096-9203-9C96D6B70945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C0167-6C3A-4983-8F88-531066669334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -622,10 +622,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.58139534883720934</c:v>
+                  <c:v>0.62790697674418605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7039106145251395E-2</c:v>
+                  <c:v>7.2625698324022353E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D1" s="19">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>29</v>
@@ -6491,14 +6491,14 @@
       </c>
       <c r="B2" s="13">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.58139534883720934</v>
+        <v>0.62790697674418605</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="19">
         <f ca="1">F1-TODAY()</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6508,14 +6508,14 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>6.7039106145251395E-2</v>
+        <v>7.2625698324022353E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.4032176516903013E-2</v>
+        <v>4.4536304239955797E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>295.2386420191965</v>
+        <v>291.89669465965778</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45054.238642019198</v>
+        <v>45050.896694659656</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="23">
         <v>179</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C0167-6C3A-4983-8F88-531066669334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20744FE-8081-464A-9ED0-5CB369EC8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -625,7 +625,7 @@
                   <c:v>0.62790697674418605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2625698324022353E-2</c:v>
+                  <c:v>7.8212290502793297E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5935,13 +5935,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>973862</xdr:colOff>
+      <xdr:colOff>973863</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>79460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>849924</xdr:colOff>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>165945</xdr:rowOff>
     </xdr:to>
@@ -5977,7 +5977,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>871904</xdr:colOff>
+      <xdr:colOff>210695</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>108060</xdr:rowOff>
     </xdr:to>
@@ -6007,15 +6007,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>923888</xdr:colOff>
+      <xdr:colOff>253855</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>94770</xdr:rowOff>
+      <xdr:rowOff>81632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>564174</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360395</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>181255</xdr:rowOff>
+      <xdr:rowOff>168117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6043,15 +6043,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>934877</xdr:colOff>
+      <xdr:colOff>264843</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>17183</xdr:rowOff>
+      <xdr:rowOff>4045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>51616</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>446690</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>102907</xdr:rowOff>
+      <xdr:rowOff>89769</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6085,7 +6085,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
+      <xdr:colOff>196113</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>42117</xdr:rowOff>
     </xdr:to>
@@ -6115,15 +6115,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>909966</xdr:colOff>
+      <xdr:colOff>239932</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>168115</xdr:rowOff>
+      <xdr:rowOff>154977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>26705</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>421779</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>56770</xdr:rowOff>
+      <xdr:rowOff>43632</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6450,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6508,14 +6508,14 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>7.2625698324022353E-2</v>
+        <v>7.8212290502793297E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.4536304239955797E-2</v>
+        <v>4.4885466251128985E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>291.89669465965778</v>
+        <v>289.62604347845036</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45050.896694659656</v>
+        <v>45048.626043478449</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6656,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="23">
         <v>179</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20744FE-8081-464A-9ED0-5CB369EC8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6EBC0-6A6A-449E-B4F1-CB7594A995D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -622,7 +622,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.62790697674418605</c:v>
+                  <c:v>0.65116279069767447</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.8212290502793297E-2</c:v>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B2" s="13">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.62790697674418605</v>
+        <v>0.65116279069767447</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.4885466251128985E-2</v>
+        <v>4.633895462322201E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>289.62604347845036</v>
+        <v>280.54150348668554</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45048.626043478449</v>
+        <v>45039.541503486689</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6EBC0-6A6A-449E-B4F1-CB7594A995D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C06DE2-228D-40C7-8DE3-A5A6BA133895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -625,7 +625,7 @@
                   <c:v>0.65116279069767447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8212290502793297E-2</c:v>
+                  <c:v>8.3798882681564241E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6508,14 +6508,14 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>7.8212290502793297E-2</v>
+        <v>8.3798882681564241E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.633895462322201E-2</v>
+        <v>4.6688116634395191E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>280.54150348668554</v>
+        <v>278.44344422372535</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45039.541503486689</v>
+        <v>45037.443444223725</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="23">
         <v>179</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C06DE2-228D-40C7-8DE3-A5A6BA133895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA835EE-C65E-4AF2-ACCA-FDBBB4E0C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -622,7 +622,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.65116279069767447</c:v>
+                  <c:v>0.67441860465116277</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.3798882681564241E-2</c:v>
@@ -6450,7 +6450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B2" s="13">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.65116279069767447</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.6688116634395191E-2</v>
+        <v>4.814160500648821E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>278.44344422372535</v>
+        <v>270.03669691211883</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45037.443444223725</v>
+        <v>45029.036696912117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6656,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA835EE-C65E-4AF2-ACCA-FDBBB4E0C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3393BD6-8DB7-4496-9609-302C030F0976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -625,7 +625,7 @@
                   <c:v>0.67441860465116277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3798882681564241E-2</c:v>
+                  <c:v>8.9385474860335198E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6450,7 +6450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -6508,14 +6508,14 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>8.3798882681564241E-2</v>
+        <v>8.9385474860335198E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.814160500648821E-2</v>
+        <v>4.8490767017661397E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>270.03669691211883</v>
+        <v>268.0922740460079</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45029.036696912117</v>
+        <v>45027.092274046008</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6656,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="23">
         <v>179</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3393BD6-8DB7-4496-9609-302C030F0976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800520A-846F-40D3-B9B4-B815D1668F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -625,7 +625,7 @@
                   <c:v>0.67441860465116277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9385474860335198E-2</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6508,14 +6508,14 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>8.9385474860335198E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.8490767017661397E-2</v>
+        <v>4.8459730394446003E-2</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/D3</f>
-        <v>268.0922740460079</v>
+        <v>268.26397700078695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45027.092274046008</v>
+        <v>45027.263977000788</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6712,7 +6712,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="23">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800520A-846F-40D3-B9B4-B815D1668F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825A496-CACF-44FF-9D12-8459431D6546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -622,7 +622,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67441860465116277</c:v>
+                  <c:v>0.69767441860465118</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.8888888888888892E-2</c:v>
@@ -6450,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6491,13 +6491,13 @@
       </c>
       <c r="B2" s="13">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.67441860465116277</v>
+        <v>0.69767441860465118</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="19">
-        <f ca="1">F1-TODAY()</f>
+      <c r="D2" s="20">
+        <f ca="1">$F$1-TODAY()</f>
         <v>15</v>
       </c>
     </row>
@@ -6514,10 +6514,9 @@
         <v>26</v>
       </c>
       <c r="D3" s="21">
-        <f ca="1">SUM(B2:B19)/D1</f>
-        <v>4.8459730394446003E-2</v>
-      </c>
-      <c r="E3" s="21"/>
+        <f ca="1">SUM($B$2:$B$100)/$D$1</f>
+        <v>4.9913218766539029E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
@@ -6532,8 +6531,8 @@
         <v>27</v>
       </c>
       <c r="D4" s="22">
-        <f ca="1">13/D3</f>
-        <v>268.26397700078695</v>
+        <f ca="1">13/$D$3</f>
+        <v>260.45204699791827</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,8 +6540,8 @@
         <v>28</v>
       </c>
       <c r="D5" s="20">
-        <f ca="1">DATE(2022,7,17) + D4</f>
-        <v>45027.263977000788</v>
+        <f ca="1">DATE(2022,7,17) + $D$4</f>
+        <v>45019.452046997918</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6656,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6687,7 +6686,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825A496-CACF-44FF-9D12-8459431D6546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFEF87B-E1E1-4F14-8B96-18B5825C4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1390,7 +1390,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.8965517241379309E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM($B$2:$B$100)/$D$1</f>
-        <v>4.9913218766539029E-2</v>
+        <v>5.034425324929765E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/$D$3</f>
-        <v>260.45204699791827</v>
+        <v>258.22212389616408</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + $D$4</f>
-        <v>45019.452046997918</v>
+        <v>45017.222123896165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B10" s="16">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0</v>
+        <v>6.8965517241379309E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6843,7 +6843,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFEF87B-E1E1-4F14-8B96-18B5825C4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB91DCF-18F9-4AE0-8495-A6107ED8AE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -6843,7 +6843,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB91DCF-18F9-4AE0-8495-A6107ED8AE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091AD08-AD64-43B3-BEFE-E11077300212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -625,7 +625,7 @@
                   <c:v>0.69767441860465118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8888888888888892E-2</c:v>
+                  <c:v>9.4444444444444442E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6450,7 +6450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D1" s="19">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>29</v>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="D2" s="20">
         <f ca="1">$F$1-TODAY()</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6508,14 +6508,14 @@
       </c>
       <c r="B3" s="13">
         <f>Java!A6*100%/Java!B6</f>
-        <v>8.8888888888888892E-2</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM($B$2:$B$100)/$D$1</f>
-        <v>5.034425324929765E-2</v>
+        <v>4.770962397319517E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/$D$3</f>
-        <v>258.22212389616408</v>
+        <v>272.4817115998195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + $D$4</f>
-        <v>45017.222123896165</v>
+        <v>45031.481711599823</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6655,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="23">
         <v>180</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091AD08-AD64-43B3-BEFE-E11077300212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABD3E5-468C-4EED-9D43-357AF10CF180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
                   <c:v>6.8965517241379309E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6450,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6459,7 +6459,7 @@
     <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14" style="18" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="17" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -6496,7 +6496,7 @@
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <f ca="1">$F$1-TODAY()</f>
         <v>14</v>
       </c>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM($B$2:$B$100)/$D$1</f>
-        <v>4.770962397319517E-2</v>
+        <v>4.9439727779423549E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="D4" s="22">
         <f ca="1">13/$D$3</f>
-        <v>272.4817115998195</v>
+        <v>262.94643162275872</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + $D$4</f>
-        <v>45031.481711599823</v>
+        <v>45021.94643162276</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="B11" s="16">
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
-        <v>0</v>
+        <v>2.9411764705882353E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6655,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6843,7 +6843,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6891,10 +6891,10 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABD3E5-468C-4EED-9D43-357AF10CF180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85127C96-ECC4-43B0-9F54-12C35CAC98F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1530" yWindow="2595" windowWidth="28320" windowHeight="15345" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Лекций просмотрено</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Дней с начала обучения прошло:</t>
+  </si>
+  <si>
+    <t>Spring в действии (Книга)</t>
+  </si>
+  <si>
+    <t>Прочитано</t>
+  </si>
+  <si>
+    <t>Дейт. Введение в системы баз данных (книга)</t>
   </si>
 </sst>
 </file>
@@ -1283,9 +1292,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$10:$A$12</c:f>
+              <c:f>Анализ!$A$10:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>PostgreSql (курс)</c:v>
                 </c:pt>
@@ -1294,6 +1303,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Задачки SQL (LeetCode)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Дейт. Введение в системы баз данных (книга)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1368,9 +1380,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$10:$A$12</c:f>
+              <c:f>Анализ!$A$10:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>PostgreSql (курс)</c:v>
                 </c:pt>
@@ -1380,22 +1392,28 @@
                 <c:pt idx="2">
                   <c:v>Задачки SQL (LeetCode)</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Дейт. Введение в системы баз данных (книга)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$10:$B$12</c:f>
+              <c:f>Анализ!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.8965517241379309E-3</c:v>
+                  <c:v>1.3793103448275862E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1662,7 +1680,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$14</c:f>
+              <c:f>Анализ!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1741,7 +1759,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$14</c:f>
+              <c:f>Анализ!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1752,7 +1770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$14</c:f>
+              <c:f>Анализ!$B$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2024,7 +2042,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$16</c:f>
+              <c:f>Анализ!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2103,7 +2121,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$16</c:f>
+              <c:f>Анализ!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2114,7 +2132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$16</c:f>
+              <c:f>Анализ!$B$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2386,14 +2404,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$18:$A$19</c:f>
+              <c:f>Анализ!$A$19:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Spring (курс)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Spring проекты (курс)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spring в действии (Книга)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2468,28 +2489,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$18:$A$19</c:f>
+              <c:f>Анализ!$A$19:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Spring (курс)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Spring проекты (курс)</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spring в действии (Книга)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$18:$B$19</c:f>
+              <c:f>Анализ!$B$19:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6448,15 +6475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="18" customWidth="1"/>
@@ -6515,7 +6542,7 @@
       </c>
       <c r="D3" s="21">
         <f ca="1">SUM($B$2:$B$100)/$D$1</f>
-        <v>4.9439727779423549E-2</v>
+        <v>4.9845407292608133E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6531,8 +6558,8 @@
         <v>27</v>
       </c>
       <c r="D4" s="22">
-        <f ca="1">13/$D$3</f>
-        <v>262.94643162275872</v>
+        <f ca="1">COUNTA(B2:B100)/$D$3</f>
+        <v>300.93043300750475</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,7 +6568,7 @@
       </c>
       <c r="D5" s="20">
         <f ca="1">DATE(2022,7,17) + $D$4</f>
-        <v>45021.94643162276</v>
+        <v>45059.930433007503</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6581,7 +6608,7 @@
       </c>
       <c r="B10" s="16">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>6.8965517241379309E-3</v>
+        <v>1.3793103448275862E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6604,43 +6631,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="str">
+        <f>'Базы данных'!A10</f>
+        <v>Дейт. Введение в системы баз данных (книга)</v>
+      </c>
+      <c r="B13" s="16">
+        <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B15" s="16">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B17" s="16">
         <f>Git!A3*100%/Git!B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
-        <f>Spring!A1</f>
-        <v>Spring (курс)</v>
-      </c>
-      <c r="B18" s="16">
-        <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
+        <f>Spring!A1</f>
+        <v>Spring (курс)</v>
+      </c>
+      <c r="B19" s="16">
+        <f>Spring!A3*100%/Spring!B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B20" s="16">
         <f>Spring!A6*100%/Spring!B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="str">
+        <f>Spring!A7</f>
+        <v>Spring в действии (Книга)</v>
+      </c>
+      <c r="B21" s="16">
+        <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
     </row>
@@ -6752,7 +6799,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6825,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="6">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6840,16 +6887,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6869,7 +6916,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>
@@ -6912,18 +6959,41 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="25"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7020,10 +7090,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7073,18 +7143,42 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85127C96-ECC4-43B0-9F54-12C35CAC98F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7778625-0BA3-4270-A4D2-AEA0C6EF4025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2595" windowWidth="28320" windowHeight="15345" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="6075" yWindow="1860" windowWidth="28320" windowHeight="15345" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Лекций просмотрено</t>
   </si>
@@ -146,6 +146,21 @@
   <si>
     <t>Дейт. Введение в системы баз данных (книга)</t>
   </si>
+  <si>
+    <t>[41;1117]</t>
+  </si>
+  <si>
+    <t>[18;273]</t>
+  </si>
+  <si>
+    <t>Spring вопросы на собеседовании</t>
+  </si>
+  <si>
+    <t>[23; 954]</t>
+  </si>
+  <si>
+    <t>Компьютерные сети (книга)</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +193,57 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -341,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,15 +431,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -420,6 +475,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -428,7 +497,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3399FF"/>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFE785D2"/>
+      <color rgb="FFC438F6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -541,7 +615,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E785D2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -551,14 +627,16 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -579,7 +657,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -589,21 +667,16 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -845,10 +918,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -877,10 +947,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -940,25 +1007,25 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1082,10 +1149,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1142,10 +1206,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1198,7 +1259,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1312,7 +1377,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1414,7 +1482,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.2936802973977699E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,11 +1748,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$15</c:f>
+              <c:f>Анализ!$A$15:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Введение в комп. сети (Андрей)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Компьютерные сети (книга)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1759,22 +1830,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$15</c:f>
+              <c:f>Анализ!$A$15:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Введение в комп. сети (Андрей)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Компьютерные сети (книга)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$15</c:f>
+              <c:f>Анализ!$B$15:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2042,7 +2119,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$17</c:f>
+              <c:f>Анализ!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2121,7 +2198,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$17</c:f>
+              <c:f>Анализ!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2132,7 +2209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$17</c:f>
+              <c:f>Анализ!$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2404,7 +2481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$19:$A$21</c:f>
+              <c:f>Анализ!$A$20:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2489,7 +2566,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$19:$A$21</c:f>
+              <c:f>Анализ!$A$20:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2506,7 +2583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$19:$B$21</c:f>
+              <c:f>Анализ!$B$20:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6175,6 +6252,131 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162616</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3129575" cy="1183657"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FA5AE8-1920-94B1-39DA-B0472D67ECA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115957" y="4734616"/>
+          <a:ext cx="3129575" cy="1183657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>!ПРИМЕЧАНИЕ!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Выполнение абсолютно всех пунктов не обязательно.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Поэтому анализ является сильно примерным, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>но он явно отражет весь прогресс обучения.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Так же нужно учитывать, что я самостоятельно,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>по мере изучения, добавляю вопросы, которые могут</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>быть на собеседованиях.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6475,219 +6677,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="15" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="17">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
         <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="18">
         <f>DATE(2022,8,17)</f>
         <v>44790</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="29" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f ca="1">$F$1-TODAY()</f>
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="30" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <f>Java!A6*100%/Java!B6</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <f ca="1">SUM($B$2:$B$100)/$D$1</f>
-        <v>4.9845407292608133E-2</v>
+        <v>5.0392094368925645E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="30" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <f ca="1">COUNTA(B2:B100)/$D$3</f>
-        <v>300.93043300750475</v>
+        <v>337.35450397320801</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <f ca="1">DATE(2022,7,17) + $D$4</f>
-        <v>45059.930433007503</v>
+        <v>45096.354503973205</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="35" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="35" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="str">
+      <c r="A8" s="35" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="str">
+      <c r="A10" s="39" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="39" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="str">
+      <c r="A12" s="39" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="39" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
-        <v>0</v>
+        <v>9.2936802973977699E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="36" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="str">
+        <f>Сети!A4</f>
+        <v>Компьютерные сети (книга)</v>
+      </c>
+      <c r="B16" s="14">
+        <f>Сети!A6*100%/Сети!B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B18" s="14">
         <f>Git!A3*100%/Git!B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="str">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B20" s="14">
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="str">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B21" s="14">
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="str">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (Книга)</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B22" s="14">
         <f>Spring!A9*100%/Spring!B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="str">
+        <f>Spring!A10</f>
+        <v>Spring вопросы на собеседовании</v>
+      </c>
+      <c r="B23" s="14">
+        <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
     </row>
@@ -6718,10 +6940,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6740,10 +6962,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6757,15 +6979,15 @@
       <c r="A6" s="5">
         <v>17</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -6796,10 +7018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEB77C-D1D9-44FA-A033-AAFB087AD5F9}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6809,13 +7031,13 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -6823,7 +7045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6831,13 +7053,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -6845,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -6853,13 +7075,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -6867,12 +7089,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0</v>
       </c>
       <c r="B9" s="6">
         <v>255</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6887,10 +7112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6900,13 +7125,13 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6914,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6922,13 +7147,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6936,7 +7161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -6944,13 +7169,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="25"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -6958,7 +7183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -6966,13 +7191,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="23"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -6980,12 +7205,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>0</v>
+        <f>51-41</f>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>1076</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7001,10 +7230,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFCCA27-2B5A-43A0-8328-6BD008C1B7A2}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7014,13 +7243,13 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -7028,17 +7257,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6">
+        <v>931</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7059,10 +7314,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7090,10 +7345,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7104,10 +7359,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -7129,10 +7384,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -7151,10 +7406,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -7165,18 +7420,41 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>0</v>
+      </c>
+      <c r="B12" s="34">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7778625-0BA3-4270-A4D2-AEA0C6EF4025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298DE5A-0765-48ED-A420-15FA31831934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1860" windowWidth="28320" windowHeight="15345" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Лекций просмотрено</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Дней до отчета осталось</t>
   </si>
   <si>
-    <t>Дней с начала обучения прошло:</t>
-  </si>
-  <si>
-    <t>Spring в действии (Книга)</t>
-  </si>
-  <si>
     <t>Прочитано</t>
   </si>
   <si>
@@ -161,6 +155,33 @@
   <si>
     <t>Компьютерные сети (книга)</t>
   </si>
+  <si>
+    <t>Spring в действии (книга)</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Алгоритмы</t>
+  </si>
+  <si>
+    <t>Базы Данных</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Общий прогресс</t>
+  </si>
+  <si>
+    <t>Компьютерные сети</t>
+  </si>
+  <si>
+    <t>Дней с начала обучения прошло</t>
+  </si>
 </sst>
 </file>
 
@@ -169,11 +190,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Garamond"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -197,6 +218,22 @@
       <b/>
       <sz val="12"/>
       <color theme="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -246,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -396,11 +433,242 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,7 +692,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -432,31 +699,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,20 +735,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,10 +904,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF3399FF"/>
+      <color rgb="FF71BD7A"/>
+      <color rgb="FFEA7E7E"/>
+      <color rgb="FFFF6767"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCFF"/>
+      <color rgb="FF3399FF"/>
       <color rgb="FFE785D2"/>
       <color rgb="FFC438F6"/>
     </mruColors>
@@ -537,7 +947,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -570,7 +980,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -626,17 +1036,84 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1922-4E3E-B3AB-17E2609A618B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -644,9 +1121,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -657,7 +1134,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -730,7 +1207,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="79"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -742,6 +1219,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -764,7 +1255,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -792,53 +1283,12 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -864,7 +1314,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -916,9 +1368,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -927,7 +1382,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>АиСД</a:t>
+              <a:t>Алгоритмы</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -945,9 +1400,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -960,17 +1418,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32623546245001284"/>
-          <c:y val="0.37502973164531478"/>
-          <c:w val="0.64442435006801624"/>
-          <c:h val="0.54127231670777676"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -997,7 +1445,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1008,24 +1456,31 @@
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1045,21 +1500,16 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1113,7 +1563,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="79"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -1125,6 +1575,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1147,9 +1611,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1172,50 +1639,12 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1241,7 +1670,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1259,11 +1690,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1297,7 +1724,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1311,7 +1738,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Базы Данных</a:t>
+              <a:t>Базы данных</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1329,7 +1756,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1377,10 +1804,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1390,14 +1814,21 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1405,9 +1836,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1428,21 +1859,16 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1502,7 +1928,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="79"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -1514,6 +1940,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1536,7 +1976,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1564,53 +2004,12 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1636,7 +2035,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1688,7 +2089,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1720,7 +2121,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1762,7 +2163,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1772,14 +2173,21 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1787,9 +2195,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1810,21 +2218,16 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1872,7 +2275,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="79"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -1884,6 +2287,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1906,7 +2323,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1934,53 +2351,12 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2006,7 +2382,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2058,7 +2436,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2074,7 +2452,6 @@
               <a:rPr lang="en-US"/>
               <a:t>Git</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2091,7 +2468,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2130,7 +2507,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2140,14 +2517,21 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2155,9 +2539,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2178,21 +2562,16 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2234,7 +2613,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="79"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -2246,6 +2625,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2268,7 +2661,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2296,53 +2689,12 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2368,7 +2720,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2420,7 +2774,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2434,9 +2788,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Spring</a:t>
+              <a:t>Spring framework</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2453,7 +2806,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2481,9 +2834,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$20:$A$22</c:f>
+              <c:f>Анализ!$A$20:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Spring (курс)</c:v>
                 </c:pt>
@@ -2491,14 +2844,17 @@
                   <c:v>Spring проекты (курс)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Spring в действии (Книга)</c:v>
+                  <c:v>Spring в действии (книга)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spring вопросы на собеседовании</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2508,14 +2864,21 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2523,9 +2886,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2546,29 +2909,24 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$20:$A$22</c:f>
+              <c:f>Анализ!$A$20:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Spring (курс)</c:v>
                 </c:pt>
@@ -2576,17 +2934,20 @@
                   <c:v>Spring проекты (курс)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Spring в действии (Книга)</c:v>
+                  <c:v>Spring в действии (книга)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spring вопросы на собеседовании</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$20:$B$22</c:f>
+              <c:f>Анализ!$B$20:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2594,6 +2955,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2614,7 +2978,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="79"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -2626,6 +2990,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2648,7 +3026,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2676,53 +3054,12 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2748,7 +3085,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2780,13 +3119,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2820,10 +3156,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2857,10 +3193,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2894,10 +3230,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2931,10 +3267,10 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2968,10 +3304,10 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3005,7 +3341,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3016,7 +3352,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3039,18 +3375,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3062,19 +3398,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3106,35 +3439,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3146,30 +3489,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3191,15 +3538,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3209,7 +3554,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3218,7 +3563,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3228,132 +3609,85 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3374,7 +3708,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3382,7 +3716,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3395,6 +3729,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3402,10 +3747,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3426,7 +3771,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3435,14 +3780,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3456,27 +3801,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3490,6 +3834,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3497,20 +3852,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3521,7 +3870,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3544,18 +3893,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3567,19 +3916,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3611,35 +3957,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3651,30 +4007,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3696,15 +4056,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3714,7 +4072,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3723,7 +4081,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3733,132 +4127,85 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3879,7 +4226,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3887,7 +4234,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3900,6 +4247,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3907,10 +4265,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3931,7 +4289,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3940,14 +4298,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3961,27 +4319,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3995,6 +4352,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4002,20 +4370,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4026,7 +4388,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4049,18 +4411,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4072,19 +4434,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4116,35 +4475,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4156,30 +4525,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4201,15 +4574,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4219,7 +4590,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4228,7 +4599,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4238,132 +4645,85 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4384,7 +4744,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4392,7 +4752,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4405,6 +4765,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4412,10 +4783,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4436,7 +4807,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4445,14 +4816,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4466,27 +4837,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4500,6 +4870,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4507,20 +4888,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4531,7 +4906,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4554,18 +4929,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4577,19 +4952,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4621,35 +4993,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4661,30 +5043,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4706,15 +5092,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4724,7 +5108,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4733,7 +5117,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4743,132 +5163,85 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4889,7 +5262,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4897,7 +5270,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4910,6 +5283,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4917,10 +5301,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4941,7 +5325,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4950,14 +5334,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4971,27 +5355,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5005,6 +5388,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5012,20 +5406,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5036,7 +5424,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5059,18 +5447,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5082,19 +5470,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5126,35 +5511,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5166,30 +5561,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5211,15 +5610,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5229,7 +5626,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5238,7 +5635,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5248,132 +5681,85 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5394,7 +5780,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5402,7 +5788,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5415,6 +5801,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5422,10 +5819,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5446,7 +5843,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5455,14 +5852,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5476,27 +5873,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5510,6 +5906,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5517,20 +5924,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5541,7 +5942,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5564,18 +5965,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5587,19 +5988,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5631,35 +6029,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5671,30 +6079,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5716,15 +6128,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5734,7 +6144,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5743,7 +6153,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5753,132 +6199,85 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5899,7 +6298,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5907,7 +6306,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5920,6 +6319,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5927,10 +6337,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5951,7 +6361,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5960,14 +6370,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5981,27 +6391,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6015,6 +6424,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6022,14 +6442,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6038,16 +6452,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>973863</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27450</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>79460</xdr:rowOff>
+      <xdr:rowOff>25302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>794176</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>165945</xdr:rowOff>
+      <xdr:rowOff>111787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6072,194 +6486,14 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>981186</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>21578</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>210695</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>108060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Диаграмма 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A399581-E29C-B6EB-0D94-9DA1CF8F8F97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>253855</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>81632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>360395</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>168117</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Диаграмма 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BB427E-0FDA-22CB-774C-F85CFEB7E967}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>264843</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>446690</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89769</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Диаграмма 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86A0FC3-2118-A607-8B18-F48FA63091DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>967114</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>196113</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42117</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Диаграмма 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20499B18-65DE-A7F4-9969-8069E2DA2F77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>239932</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>154977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>421779</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43632</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Диаграмма 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A24F4E4-DB29-DFE8-FD39-24C2C90C9FD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>162616</xdr:rowOff>
+      <xdr:rowOff>88878</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3129575" cy="1183657"/>
+    <xdr:ext cx="3230372" cy="1331134"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -6273,8 +6507,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="115957" y="4734616"/>
-          <a:ext cx="3129575" cy="1183657"/>
+          <a:off x="115957" y="4660878"/>
+          <a:ext cx="3230372" cy="1331134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6370,20 +6604,265 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>быть на собеседованиях.</a:t>
+            <a:t>быть на собеседованиях, поэтому процент выполнения </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>будет неизменным..</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804128C-696E-8CAE-CDEE-C0865B2F75B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10899913" y="3279912"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809965</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>191903</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29726</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE1F9D7-FDC1-23A1-EDE7-475C7BE1A32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24519</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>791245</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20931</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DB80AB-92BA-9BBC-D3B7-306CBBC648ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>814361</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>196299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107389</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76512271-72CC-362A-A697-7F2FB4DED6B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812897</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>194835</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Диаграмма 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4313AB3F-9DA7-EEB6-17D9-61F50EEC2773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>794176</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133766</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Диаграмма 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634C3A0C-FFDA-A3EB-638D-762430CEC55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Натуральные материалы">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Натуральные материалы">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6391,48 +6870,83 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="212121"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DADADA"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="83992A"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="3C9770"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="44709D"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="A23C33"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D97828"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="DEB340"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="A8BF4D"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="B4CA80"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Натуральные материалы">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Garamond" panose="02020404030301010803"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="돋움"/>
+        <a:font script="Hans" typeface="方正舒体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Garamond" panose="02020404030301010803"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
+        <a:font script="Hang" typeface="바탕"/>
+        <a:font script="Hans" typeface="方正舒体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -6456,78 +6970,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Натуральные материалы">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6536,76 +6981,54 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="60000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="82000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:shade val="74000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
+                <a:satMod val="120000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -6613,13 +7036,19 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:innerShdw blurRad="25400" dist="12700" dir="13500000">
+              <a:srgbClr val="000000">
+                <a:alpha val="45000"/>
+              </a:srgbClr>
+            </a:innerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -6629,39 +7058,27 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="90000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="88000"/>
+                <a:lumMod val="98000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -6669,7 +7086,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Organic" id="{28CDC826-8792-45C0-861B-85EB3ADEDA33}" vid="{7DAC20F1-423D-49E2-BD0B-50532748BAD0}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6677,243 +7094,865 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="13" customWidth="1"/>
+    <col min="5" max="5" width="41" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.125" style="1"/>
+    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="17">
+      <c r="C1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="94">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="18">
+      <c r="H1" s="96">
         <f>DATE(2022,8,17)</f>
         <v>44790</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="str">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="52">
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="84">
+        <f>SUM(B2:B4)</f>
+        <v>0.79211886304909562</v>
+      </c>
+      <c r="E2" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="17">
-        <f ca="1">$F$1-TODAY()</f>
+      <c r="F2" s="89">
+        <f ca="1">$H$1-TODAY()</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="str">
+      <c r="G2" s="19"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="53">
         <f>Java!A6*100%/Java!B6</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="19">
-        <f ca="1">SUM($B$2:$B$100)/$D$1</f>
+      <c r="F3" s="90">
+        <f ca="1">SUM($B$2:$B$100)/$F$1</f>
         <v>5.0392094368925645E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="str">
+      <c r="G3" s="19"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="54">
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="20">
-        <f ca="1">COUNTA(B2:B100)/$D$3</f>
+      <c r="F4" s="91">
+        <f ca="1">COUNTA(B2:B100)/$F$3</f>
         <v>337.35450397320801</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="E5" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="18">
-        <f ca="1">DATE(2022,7,17) + $D$4</f>
+      <c r="F5" s="93">
+        <f ca="1">DATE(2022,7,17) + $F$4</f>
         <v>45096.354503973205</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="str">
+      <c r="G5" s="19"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="34">
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="str">
+      <c r="C6" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="75">
+        <f>SUM(B7:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="35">
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="str">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="36">
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="str">
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="34">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="str">
+      <c r="C10" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="69">
+        <f>SUM(B10:B13)</f>
+        <v>5.2498548451555986E-2</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="35">
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="str">
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="35">
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="str">
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="36">
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="str">
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="34">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="str">
+      <c r="C15" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="65">
+        <f>SUM(B15:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="36">
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="55">
         <f>Git!A3*100%/Git!B3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="str">
+      <c r="C18" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="63">
+        <f>SUM(B18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="34">
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="str">
+      <c r="C20" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="57">
+        <f>SUM(B20:B23)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="35">
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="str">
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="str">
         <f>Spring!A7</f>
-        <v>Spring в действии (Книга)</v>
-      </c>
-      <c r="B22" s="14">
+        <v>Spring в действии (книга)</v>
+      </c>
+      <c r="B22" s="35">
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="str">
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="36">
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
@@ -6928,22 +7967,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6962,10 +8001,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6979,15 +8018,15 @@
       <c r="A6" s="5">
         <v>17</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="14">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -7024,18 +8063,18 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7054,10 +8093,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -7076,10 +8115,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -7097,7 +8136,7 @@
         <v>255</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7118,18 +8157,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7148,10 +8187,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -7170,10 +8209,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -7192,14 +8231,14 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="A10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -7214,7 +8253,7 @@
         <v>1076</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7236,18 +8275,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7266,14 +8305,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="23"/>
+      <c r="A4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -7287,7 +8326,7 @@
         <v>931</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7307,19 +8346,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -7327,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -7348,27 +8387,27 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7384,10 +8423,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -7406,14 +8445,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
@@ -7428,24 +8467,24 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="A10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="17">
         <v>0</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="18">
         <v>33</v>
       </c>
     </row>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298DE5A-0765-48ED-A420-15FA31831934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55842125-7122-43B1-82E8-23D1D9CB004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -190,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,24 +717,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -764,9 +746,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,97 +758,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -895,6 +787,114 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,16 +954,22 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Java</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -987,9 +993,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -1255,16 +1261,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1320,10 +1326,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1375,13 +1378,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Алгоритмы</a:t>
             </a:r>
           </a:p>
@@ -1407,9 +1413,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -1611,16 +1617,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1676,10 +1682,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1731,13 +1734,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Базы данных</a:t>
             </a:r>
           </a:p>
@@ -1763,9 +1769,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -1976,16 +1982,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -2041,10 +2047,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2096,13 +2099,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Компьютерные сети</a:t>
             </a:r>
           </a:p>
@@ -2128,9 +2134,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -2323,16 +2329,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -2388,10 +2394,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2443,13 +2446,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Git</a:t>
             </a:r>
           </a:p>
@@ -2475,9 +2481,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -2661,16 +2667,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -2726,10 +2732,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2781,13 +2784,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Spring framework</a:t>
             </a:r>
           </a:p>
@@ -2813,9 +2819,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -3026,16 +3032,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -3091,10 +3097,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -6489,9 +6492,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>115957</xdr:colOff>
+      <xdr:colOff>3962591</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>88878</xdr:rowOff>
+      <xdr:rowOff>74225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3230372" cy="1331134"/>
     <xdr:sp macro="" textlink="">
@@ -6507,7 +6510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="115957" y="4660878"/>
+          <a:off x="3962591" y="4909994"/>
           <a:ext cx="3230372" cy="1331134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7096,11 +7099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
@@ -7116,26 +7119,26 @@
     <col min="16" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="87" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="94">
+      <c r="F1" s="58">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
         <v>17</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="96">
+      <c r="H1" s="60">
         <f>DATE(2022,8,17)</f>
         <v>44790</v>
       </c>
@@ -7149,26 +7152,26 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="str">
+    <row r="2" spans="1:17">
+      <c r="A2" s="40" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="45">
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="82">
         <f>SUM(B2:B4)</f>
         <v>0.79211886304909562</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="89">
+      <c r="F2" s="53">
         <f ca="1">$H$1-TODAY()</f>
         <v>14</v>
       </c>
@@ -7184,21 +7187,21 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="str">
+    <row r="3" spans="1:17">
+      <c r="A3" s="41" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="46">
         <f>Java!A6*100%/Java!B6</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="88" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="54">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
         <v>5.0392094368925645E-2</v>
       </c>
@@ -7214,21 +7217,21 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="str">
+    <row r="4" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A4" s="42" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="47">
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="88" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="55">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
         <v>337.35450397320801</v>
       </c>
@@ -7244,12 +7247,12 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="E5" s="92" t="s">
+    <row r="5" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A5" s="24"/>
+      <c r="E5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="57">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
         <v>45096.354503973205</v>
       </c>
@@ -7265,19 +7268,19 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="str">
+    <row r="6" spans="1:17">
+      <c r="A6" s="37" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="28">
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="88">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
@@ -7295,17 +7298,17 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="str">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="38" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="29">
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7320,17 +7323,17 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="str">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="39" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="30">
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7345,8 +7348,8 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="24"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19"/>
       <c r="F9" s="22"/>
@@ -7362,19 +7365,19 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="str">
+    <row r="10" spans="1:17">
+      <c r="A10" s="34" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="64">
         <f>SUM(B10:B13)</f>
         <v>5.2498548451555986E-2</v>
       </c>
@@ -7392,17 +7395,17 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="str">
+    <row r="11" spans="1:17">
+      <c r="A11" s="35" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="29">
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7417,17 +7420,17 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="str">
+    <row r="12" spans="1:17">
+      <c r="A12" s="35" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="29">
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7442,17 +7445,17 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="str">
+    <row r="13" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A13" s="36" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="30">
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7467,8 +7470,8 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A14" s="24"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
       <c r="G14" s="19"/>
@@ -7483,19 +7486,19 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="str">
+    <row r="15" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A15" s="32" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="28">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>0</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="69">
         <f>SUM(B15:B16)</f>
         <v>0</v>
       </c>
@@ -7513,17 +7516,17 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="str">
+    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1">
+      <c r="A16" s="33" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="30">
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7538,8 +7541,8 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A17" s="24"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -7554,19 +7557,19 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="str">
+    <row r="18" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A18" s="31" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="48">
         <f>Git!A3*100%/Git!B3</f>
         <v>0</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="50">
         <f>SUM(B18)</f>
         <v>0</v>
       </c>
@@ -7584,8 +7587,8 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A19" s="24"/>
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
       <c r="G19" s="19"/>
@@ -7600,19 +7603,19 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="str">
+    <row r="20" spans="1:17">
+      <c r="A20" s="25" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="28">
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="74">
         <f>SUM(B20:B23)</f>
         <v>0</v>
       </c>
@@ -7630,17 +7633,17 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="str">
+    <row r="21" spans="1:17">
+      <c r="A21" s="26" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="29">
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -7655,17 +7658,17 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="str">
+    <row r="22" spans="1:17">
+      <c r="A22" s="26" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="29">
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -7680,17 +7683,17 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="str">
+    <row r="23" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A23" s="27" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="30">
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -7705,7 +7708,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="19"/>
@@ -7724,7 +7727,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="19"/>
@@ -7743,7 +7746,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -7762,7 +7765,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
@@ -7781,7 +7784,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
@@ -7800,7 +7803,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -7819,7 +7822,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -7838,7 +7841,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -7857,7 +7860,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -7876,7 +7879,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="19"/>
@@ -7895,48 +7898,48 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="19"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="19"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="19"/>
     </row>
   </sheetData>
@@ -7967,7 +7970,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
@@ -7978,13 +7981,13 @@
     <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="92"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -8000,13 +8003,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="94"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8014,7 +8017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1">
       <c r="A6" s="5">
         <v>17</v>
       </c>
@@ -8022,13 +8025,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="94"/>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8036,7 +8039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8063,20 +8066,20 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="92"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8092,13 +8095,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="92"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8106,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8114,13 +8117,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="92"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8128,7 +8131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8157,20 +8160,20 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="92"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -8186,13 +8189,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="92"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8208,13 +8211,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="94"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8222,7 +8225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8230,13 +8233,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="92"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="5">
         <f>51-41</f>
         <v>10</v>
@@ -8275,20 +8278,20 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="92"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8304,13 +8307,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="92"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -8346,19 +8349,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="92"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8366,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -8390,20 +8393,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="96"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8411,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8422,13 +8425,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="92"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8436,7 +8439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8444,13 +8447,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="92"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8466,13 +8469,13 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="92"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -8480,7 +8483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1">
       <c r="A12" s="17">
         <v>0</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55842125-7122-43B1-82E8-23D1D9CB004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E137F-689C-45F2-B440-F882A9552F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -788,6 +788,48 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,48 +876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,35 +947,39 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
               </a:rPr>
               <a:t>Java</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -986,16 +990,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -1030,80 +1034,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr">
-                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-1922-4E3E-B3AB-17E2609A618B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -1127,10 +1079,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1140,7 +1089,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1213,7 +1162,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="79"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -1225,31 +1174,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1261,16 +1196,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1289,12 +1221,49 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1320,9 +1289,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1371,22 +1338,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
               </a:rPr>
               <a:t>Алгоритмы</a:t>
             </a:r>
@@ -1406,16 +1371,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -1450,13 +1412,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1496,7 +1470,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1569,7 +1543,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="79"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -1581,31 +1555,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1617,16 +1577,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1645,12 +1605,49 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1676,9 +1673,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1727,28 +1722,37 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
               </a:rPr>
               <a:t>Базы данных</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30458955832677009"/>
+          <c:y val="7.5993616536210954E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1762,16 +1766,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -1780,7 +1784,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45948800792824296"/>
+          <c:y val="0.29181548749905006"/>
+          <c:w val="0.51237236958987054"/>
+          <c:h val="0.62459153431111791"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -1809,13 +1823,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1842,10 +1868,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1855,7 +1878,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1934,7 +1957,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="79"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -1946,31 +1969,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1982,16 +1991,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -2010,12 +2016,52 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2041,9 +2087,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2092,22 +2136,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
               </a:rPr>
               <a:t>Компьютерные сети</a:t>
             </a:r>
@@ -2127,16 +2169,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -2168,13 +2207,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2214,7 +2265,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2281,7 +2332,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="79"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -2293,31 +2344,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2329,16 +2366,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -2357,12 +2391,49 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2388,9 +2459,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2439,22 +2508,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
               </a:rPr>
               <a:t>Git</a:t>
             </a:r>
@@ -2474,16 +2541,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -2512,13 +2576,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2545,10 +2621,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2558,7 +2631,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2619,7 +2692,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="79"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -2631,31 +2704,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2667,16 +2726,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -2695,12 +2751,49 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2726,9 +2819,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2777,22 +2868,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
               </a:rPr>
               <a:t>Spring framework</a:t>
             </a:r>
@@ -2812,16 +2904,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -2859,13 +2951,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2892,10 +2996,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2905,7 +3006,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2984,7 +3085,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="79"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="954024095"/>
         <c:axId val="954024511"/>
@@ -2996,31 +3097,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3032,16 +3121,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -3060,12 +3146,52 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="954024095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3091,9 +3217,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3344,7 +3468,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3355,7 +3479,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3368,6 +3492,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3378,29 +3525,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -3408,9 +3532,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3445,50 +3572,32 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
@@ -3497,21 +3606,61 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3569,8 +3718,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3591,6 +3740,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3605,8 +3755,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3620,6 +3770,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3629,14 +3790,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3669,10 +3829,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3732,17 +3893,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3770,11 +3920,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3790,7 +3940,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3804,7 +3953,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3820,8 +3969,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3837,17 +3986,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3862,7 +4000,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3873,7 +4011,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3886,6 +4024,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3896,29 +4057,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -3926,9 +4064,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3963,50 +4104,32 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
@@ -4015,21 +4138,61 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4087,8 +4250,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4109,6 +4272,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4123,8 +4287,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4138,6 +4302,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4147,14 +4322,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -4187,10 +4361,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4250,17 +4425,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4288,11 +4452,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4308,7 +4472,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4322,7 +4485,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4338,8 +4501,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4355,17 +4518,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4380,7 +4532,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4391,7 +4543,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4404,6 +4556,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -4414,29 +4589,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -4444,9 +4596,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4481,50 +4636,32 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
@@ -4533,21 +4670,61 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4605,8 +4782,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4627,6 +4804,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4641,8 +4819,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4656,6 +4834,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4665,14 +4854,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -4705,10 +4893,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4768,17 +4957,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4806,11 +4984,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4826,7 +5004,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4840,7 +5017,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4856,8 +5033,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4873,17 +5050,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4898,7 +5064,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4909,7 +5075,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4922,6 +5088,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -4932,29 +5121,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -4962,9 +5128,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4999,50 +5168,32 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
@@ -5051,21 +5202,61 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5123,8 +5314,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5145,6 +5336,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5159,8 +5351,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5174,6 +5366,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -5183,14 +5386,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -5223,10 +5425,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5286,17 +5489,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5324,11 +5516,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5344,7 +5536,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5358,7 +5549,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -5374,8 +5565,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5391,17 +5582,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5416,7 +5596,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5427,7 +5607,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5440,6 +5620,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5450,29 +5653,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -5480,9 +5660,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5517,50 +5700,32 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
@@ -5569,21 +5734,61 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5641,8 +5846,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5663,6 +5868,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5677,8 +5883,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5692,6 +5898,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -5701,14 +5918,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -5741,10 +5957,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5804,17 +6021,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5842,11 +6048,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5862,7 +6068,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5876,7 +6081,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -5892,8 +6097,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5909,17 +6114,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5934,7 +6128,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5945,7 +6139,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5958,6 +6152,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5968,29 +6185,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -5998,9 +6192,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6035,50 +6232,32 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
@@ -6087,21 +6266,61 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6159,8 +6378,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6181,6 +6400,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6195,8 +6415,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6210,6 +6430,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6219,14 +6450,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -6259,10 +6489,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6322,17 +6553,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6360,11 +6580,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6380,7 +6600,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6394,7 +6613,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6410,8 +6629,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6427,17 +6646,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7100,7 +7308,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -7124,10 +7332,10 @@
       <c r="B1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="78"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="51" t="s">
         <v>46</v>
       </c>
@@ -7161,10 +7369,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="66">
         <f>SUM(B2:B4)</f>
         <v>0.79211886304909562</v>
       </c>
@@ -7196,8 +7404,8 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="83"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
@@ -7226,8 +7434,8 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="84"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="52" t="s">
         <v>27</v>
       </c>
@@ -7277,10 +7485,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="72">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
@@ -7307,8 +7515,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="89"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7332,8 +7540,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="90"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7374,10 +7582,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="78">
         <f>SUM(B10:B13)</f>
         <v>5.2498548451555986E-2</v>
       </c>
@@ -7404,8 +7612,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="65"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7429,8 +7637,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="65"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7454,8 +7662,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7495,10 +7703,10 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>0</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="83">
         <f>SUM(B15:B16)</f>
         <v>0</v>
       </c>
@@ -7525,8 +7733,8 @@
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7612,10 +7820,10 @@
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="88">
         <f>SUM(B20:B23)</f>
         <v>0</v>
       </c>
@@ -7642,8 +7850,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="75"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -7667,8 +7875,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -7692,8 +7900,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="76"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -7944,17 +8152,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voland/Documents/JavaBackend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E137F-689C-45F2-B440-F882A9552F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8DA1E-CA9F-3F47-AEF6-A77EC140B845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -25,15 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -190,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,48 +779,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,6 +827,48 @@
     <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,7 +889,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,7 +920,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1002,7 +993,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1086,7 +1077,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1205,7 +1196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1261,7 +1252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1306,7 +1297,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1320,7 +1311,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1380,7 +1371,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1467,7 +1458,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1589,7 +1580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1645,7 +1636,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1690,7 +1681,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1704,7 +1695,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1778,7 +1769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1875,7 +1866,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2000,7 +1991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2059,7 +2050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2104,7 +2095,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2118,7 +2109,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2178,7 +2169,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2262,7 +2253,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2375,7 +2366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2431,7 +2422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2476,7 +2467,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2490,7 +2481,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2550,7 +2541,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2628,7 +2619,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2735,7 +2726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2791,7 +2782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2836,7 +2827,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2850,7 +2841,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2916,7 +2907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3003,7 +2994,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3130,7 +3121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3189,7 +3180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3234,7 +3225,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7308,40 +7299,40 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="52.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="13" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.125" style="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.125" style="1"/>
+    <col min="6" max="6" width="14.19921875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.19921875" style="1"/>
+    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="51" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="58">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>29</v>
@@ -7360,7 +7351,7 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
@@ -7369,10 +7360,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="82">
         <f>SUM(B2:B4)</f>
         <v>0.79211886304909562</v>
       </c>
@@ -7381,7 +7372,7 @@
       </c>
       <c r="F2" s="53">
         <f ca="1">$H$1-TODAY()</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7395,7 +7386,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
@@ -7404,14 +7395,14 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="54">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.0392094368925645E-2</v>
+        <v>4.7592533570651997E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7425,7 +7416,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1">
+    <row r="4" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
@@ -7434,14 +7425,14 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="55">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>337.35450397320801</v>
+        <v>357.19888655986733</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7455,14 +7446,14 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1">
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="E5" s="56" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="57">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45096.354503973205</v>
+        <v>45116.198886559869</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7476,7 +7467,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
@@ -7485,10 +7476,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="88">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
@@ -7506,7 +7497,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
@@ -7515,8 +7506,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7531,7 +7522,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
@@ -7540,8 +7531,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7556,7 +7547,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19"/>
@@ -7573,7 +7564,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
@@ -7582,10 +7573,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="64">
         <f>SUM(B10:B13)</f>
         <v>5.2498548451555986E-2</v>
       </c>
@@ -7603,7 +7594,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
@@ -7612,8 +7603,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7628,7 +7619,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
@@ -7637,8 +7628,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7653,7 +7644,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
@@ -7662,8 +7653,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="80"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7678,7 +7669,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
@@ -7694,7 +7685,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1">
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
@@ -7703,10 +7694,10 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>0</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="69">
         <f>SUM(B15:B16)</f>
         <v>0</v>
       </c>
@@ -7724,7 +7715,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1">
+    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
@@ -7733,8 +7724,8 @@
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="84"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7749,7 +7740,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" thickBot="1">
+    <row r="17" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
@@ -7765,7 +7756,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="19.5" thickBot="1">
+    <row r="18" spans="1:17" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
@@ -7795,7 +7786,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" thickBot="1">
+    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
@@ -7811,7 +7802,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
@@ -7820,10 +7811,10 @@
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="74">
         <f>SUM(B20:B23)</f>
         <v>0</v>
       </c>
@@ -7841,7 +7832,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
@@ -7850,8 +7841,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="89"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -7866,7 +7857,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
@@ -7875,8 +7866,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="89"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -7891,7 +7882,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" thickBot="1">
+    <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
@@ -7900,8 +7891,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="90"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -7916,7 +7907,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="19"/>
@@ -7935,7 +7926,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="19"/>
@@ -7954,7 +7945,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -7973,7 +7964,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
@@ -7992,7 +7983,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
@@ -8011,7 +8002,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -8030,7 +8021,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -8049,7 +8040,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -8068,7 +8059,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -8087,7 +8078,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="19"/>
@@ -8106,63 +8097,63 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8178,24 +8169,24 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="1"/>
+    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8203,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -8211,13 +8202,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="94"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8225,7 +8216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1">
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>17</v>
       </c>
@@ -8233,13 +8224,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="94"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8247,7 +8238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1">
+    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8274,20 +8265,20 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="27.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8295,7 +8286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8303,13 +8294,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8317,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8325,13 +8316,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="92"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8339,7 +8330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8368,20 +8359,20 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8389,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -8397,13 +8388,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8411,7 +8402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8419,13 +8410,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="94"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8433,7 +8424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8441,13 +8432,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="92"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8455,7 +8446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>51-41</f>
         <v>10</v>
@@ -8486,20 +8477,20 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="23.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8507,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8515,13 +8506,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8529,7 +8520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -8557,19 +8548,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8577,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -8601,20 +8592,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8622,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1">
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8633,13 +8624,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8647,7 +8638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1">
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8655,13 +8646,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="92"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8669,7 +8660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8677,13 +8668,13 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="92"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -8691,7 +8682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1">
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>0</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voland/Documents/JavaBackend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8DA1E-CA9F-3F47-AEF6-A77EC140B845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43830A0A-CBC4-4B31-94CA-14A13EE2E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -25,6 +25,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -181,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,7 +898,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,7 +929,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -993,7 +1002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1077,7 +1086,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1196,7 +1205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1252,7 +1261,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1297,7 +1306,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1311,7 +1320,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1371,7 +1380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1458,7 +1467,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1580,7 +1589,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1636,7 +1645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1681,7 +1690,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1695,7 +1704,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1769,7 +1778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1866,7 +1875,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1991,7 +2000,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2050,7 +2059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2095,7 +2104,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2109,7 +2118,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2169,7 +2178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2253,7 +2262,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2366,7 +2375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2422,7 +2431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2467,7 +2476,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2481,7 +2490,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2541,7 +2550,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2619,7 +2628,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2726,7 +2735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2782,7 +2791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2827,7 +2836,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2841,7 +2850,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2907,7 +2916,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2994,7 +3003,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3121,7 +3130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3180,7 +3189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3225,7 +3234,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7299,26 +7308,26 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="11" customWidth="1"/>
+    <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="13" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.19921875" style="1"/>
-    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.19921875" style="1"/>
+    <col min="6" max="6" width="14.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.125" style="1"/>
+    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>24</v>
@@ -7332,7 +7341,7 @@
       </c>
       <c r="F1" s="58">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>29</v>
@@ -7351,7 +7360,7 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="40" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
@@ -7372,7 +7381,7 @@
       </c>
       <c r="F2" s="53">
         <f ca="1">$H$1-TODAY()</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7386,7 +7395,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="41" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="F3" s="54">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>4.7592533570651997E-2</v>
+        <v>5.0392094368925645E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7416,7 +7425,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.5" thickBot="1">
       <c r="A4" s="42" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
@@ -7432,7 +7441,7 @@
       </c>
       <c r="F4" s="55">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>357.19888655986733</v>
+        <v>337.35450397320801</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7446,14 +7455,14 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.5" thickBot="1">
       <c r="A5" s="24"/>
       <c r="E5" s="56" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="57">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45116.198886559869</v>
+        <v>45096.354503973205</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7467,7 +7476,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="37" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
@@ -7497,7 +7506,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="38" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
@@ -7522,7 +7531,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="39" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
@@ -7547,7 +7556,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="24"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19"/>
@@ -7564,7 +7573,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="34" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
@@ -7594,7 +7603,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="35" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
@@ -7619,7 +7628,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="35" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
@@ -7644,7 +7653,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="16.5" thickBot="1">
       <c r="A13" s="36" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
@@ -7669,7 +7678,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="16.5" thickBot="1">
       <c r="A14" s="24"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
@@ -7685,7 +7694,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="19.5" customHeight="1">
       <c r="A15" s="32" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
@@ -7715,7 +7724,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A16" s="33" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
@@ -7740,7 +7749,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="16.5" thickBot="1">
       <c r="A17" s="24"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
@@ -7756,7 +7765,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="19.5" thickBot="1">
       <c r="A18" s="31" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
@@ -7786,7 +7795,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="16.5" thickBot="1">
       <c r="A19" s="24"/>
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
@@ -7802,7 +7811,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="25" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
@@ -7832,7 +7841,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="26" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
@@ -7857,7 +7866,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="26" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
@@ -7882,7 +7891,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="16.5" thickBot="1">
       <c r="A23" s="27" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
@@ -7907,7 +7916,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="19"/>
@@ -7926,7 +7935,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="19"/>
@@ -7945,7 +7954,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -7964,7 +7973,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
@@ -7983,7 +7992,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
@@ -8002,7 +8011,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -8021,7 +8030,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -8040,7 +8049,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -8059,7 +8068,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -8078,7 +8087,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="19"/>
@@ -8097,48 +8106,48 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="19"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="19"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="19"/>
     </row>
   </sheetData>
@@ -8169,24 +8178,24 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.19921875" style="1"/>
+    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8194,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -8202,13 +8211,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="94"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8216,7 +8225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1">
       <c r="A6" s="5">
         <v>17</v>
       </c>
@@ -8224,13 +8233,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="94"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8238,7 +8247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8265,20 +8274,20 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8286,7 +8295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8294,13 +8303,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8308,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8316,13 +8325,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="92"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8330,7 +8339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8359,20 +8368,20 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -8388,13 +8397,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="91" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8402,7 +8411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8410,13 +8419,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="94"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8432,13 +8441,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="91" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="92"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8446,7 +8455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="5">
         <f>51-41</f>
         <v>10</v>
@@ -8477,20 +8486,20 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8498,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8506,13 +8515,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="91" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8520,7 +8529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -8548,19 +8557,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="91" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="92"/>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8568,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -8592,20 +8601,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8613,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8624,13 +8633,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="91" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="92"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8638,7 +8647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8646,13 +8655,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="91" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="92"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8660,7 +8669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8668,13 +8677,13 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="91" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="92"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -8682,7 +8691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1">
       <c r="A12" s="17">
         <v>0</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43830A0A-CBC4-4B31-94CA-14A13EE2E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CAA43F-D66A-4E34-9907-9325ABF8D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Spring вопросы на собеседовании</t>
   </si>
   <si>
-    <t>[23; 954]</t>
-  </si>
-  <si>
     <t>Компьютерные сети (книга)</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Дней с начала обучения прошло</t>
+  </si>
+  <si>
+    <t>[40; 954]</t>
   </si>
 </sst>
 </file>
@@ -788,6 +788,48 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,48 +876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2309,10 +2309,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.3571428571428568E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7308,7 +7305,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -7332,16 +7329,16 @@
       <c r="B1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="78"/>
+      <c r="C1" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="62"/>
       <c r="E1" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="58">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>29</v>
@@ -7369,10 +7366,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="82">
+      <c r="C2" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="66">
         <f>SUM(B2:B4)</f>
         <v>0.79211886304909562</v>
       </c>
@@ -7381,7 +7378,7 @@
       </c>
       <c r="F2" s="53">
         <f ca="1">$H$1-TODAY()</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7404,14 +7401,14 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="83"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="54">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.0392094368925645E-2</v>
+        <v>5.0568724046842477E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7434,14 +7431,14 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="84"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="55">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>337.35450397320801</v>
+        <v>316.40110170031164</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7462,7 +7459,7 @@
       </c>
       <c r="F5" s="57">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45096.354503973205</v>
+        <v>45075.401101700314</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7485,10 +7482,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="88">
+      <c r="C6" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="72">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
@@ -7515,8 +7512,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="89"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7540,8 +7537,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="90"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7582,10 +7579,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="64">
+      <c r="C10" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="78">
         <f>SUM(B10:B13)</f>
         <v>5.2498548451555986E-2</v>
       </c>
@@ -7612,8 +7609,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="65"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7637,8 +7634,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="65"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7662,8 +7659,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7701,14 +7698,14 @@
       </c>
       <c r="B15" s="28">
         <f>Сети!A3*100%/Сети!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="69">
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="83">
         <f>SUM(B15:B16)</f>
-        <v>0</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="22"/>
@@ -7729,12 +7726,9 @@
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B16" s="30">
-        <f>Сети!A6*100%/Сети!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7775,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="50">
         <f>SUM(B18)</f>
@@ -7820,10 +7814,10 @@
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C20" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="74">
+      <c r="C20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="88">
         <f>SUM(B20:B23)</f>
         <v>0</v>
       </c>
@@ -7850,8 +7844,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="75"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -7875,8 +7869,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -7900,8 +7894,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="76"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8152,17 +8146,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8483,7 +8477,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -8509,7 +8503,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8">
         <v>56</v>
@@ -8517,7 +8511,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="92"/>
     </row>
@@ -8534,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="6">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -8657,7 +8651,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="92"/>
     </row>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CAA43F-D66A-4E34-9907-9325ABF8D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75633AEF-F892-43BE-B2A1-0BF9E2768A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -788,48 +788,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,6 +834,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2311,6 +2311,9 @@
                 <c:pt idx="0">
                   <c:v>5.3571428571428568E-2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7329,10 +7332,10 @@
       <c r="B1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="51" t="s">
         <v>45</v>
       </c>
@@ -7366,10 +7369,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="82">
         <f>SUM(B2:B4)</f>
         <v>0.79211886304909562</v>
       </c>
@@ -7401,8 +7404,8 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
@@ -7431,14 +7434,14 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="55">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>316.40110170031164</v>
+        <v>336.1761705565811</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7459,7 +7462,7 @@
       </c>
       <c r="F5" s="57">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45075.401101700314</v>
+        <v>45095.17617055658</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7482,10 +7485,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="88">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
@@ -7512,8 +7515,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7537,8 +7540,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7579,10 +7582,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="64">
         <f>SUM(B10:B13)</f>
         <v>5.2498548451555986E-2</v>
       </c>
@@ -7609,8 +7612,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7634,8 +7637,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7659,8 +7662,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="80"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7700,10 +7703,10 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="69">
         <f>SUM(B15:B16)</f>
         <v>5.3571428571428568E-2</v>
       </c>
@@ -7726,9 +7729,12 @@
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="84"/>
+      <c r="B16" s="30">
+        <f>Сети!A6*100%/Сети!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7814,10 +7820,10 @@
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="74">
         <f>SUM(B20:B23)</f>
         <v>0</v>
       </c>
@@ -7844,8 +7850,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="89"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -7869,8 +7875,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="89"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -7894,8 +7900,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="90"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8146,17 +8152,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75633AEF-F892-43BE-B2A1-0BF9E2768A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50F8F5-A569-4B81-94CD-A2920039F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Лекций просмотрено</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>[40; 954]</t>
   </si>
+  <si>
+    <t>Вопросы по сетям</t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -664,11 +667,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,8 +843,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -806,36 +916,6 @@
     <xf numFmtId="9" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,6 +976,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -904,12 +1029,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF71BD7A"/>
       <color rgb="FFEA7E7E"/>
       <color rgb="FFFF6767"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF3399FF"/>
       <color rgb="FFE785D2"/>
       <color rgb="FFC438F6"/>
@@ -1139,7 +1264,7 @@
                   <c:v>0.69767441860465118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4444444444444442E-2</c:v>
+                  <c:v>9.3922651933701654E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2566,7 +2691,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$18</c:f>
+              <c:f>Анализ!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2656,7 +2781,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$18</c:f>
+              <c:f>Анализ!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2667,7 +2792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$18</c:f>
+              <c:f>Анализ!$B$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2932,7 +3057,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$20:$A$23</c:f>
+              <c:f>Анализ!$A$21:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3031,7 +3156,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$20:$A$23</c:f>
+              <c:f>Анализ!$A$21:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3051,7 +3176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$20:$B$23</c:f>
+              <c:f>Анализ!$B$21:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6700,9 +6825,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3962591</xdr:colOff>
+      <xdr:colOff>4010215</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>74225</xdr:rowOff>
+      <xdr:rowOff>162672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3230372" cy="1331134"/>
     <xdr:sp macro="" textlink="">
@@ -6718,7 +6843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962591" y="4909994"/>
+          <a:off x="4010215" y="4986404"/>
           <a:ext cx="3230372" cy="1331134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6825,7 +6950,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>будет неизменным..</a:t>
+            <a:t>может долго оставаться без изменений.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7308,7 +7433,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -7328,25 +7453,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="58">
+      <c r="F1" s="56">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
         <v>18</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="60">
+      <c r="H1" s="58">
         <f>DATE(2022,8,17)</f>
         <v>44790</v>
       </c>
@@ -7361,25 +7486,25 @@
       <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="40" t="str">
+      <c r="A2" s="38" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="82">
-        <f>SUM(B2:B4)</f>
-        <v>0.79211886304909562</v>
-      </c>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="70">
+        <f>SUM(B2:B4)/COUNTA(B2:B4)*100%</f>
+        <v>0.26386569017945094</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="51">
         <f ca="1">$H$1-TODAY()</f>
         <v>13</v>
       </c>
@@ -7396,22 +7521,22 @@
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="41" t="str">
+      <c r="A3" s="39" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="44">
         <f>Java!A6*100%/Java!B6</f>
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="52" t="s">
+        <v>9.3922651933701654E-2</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="52">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.0568724046842477E-2</v>
+        <v>5.0539735574023435E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7426,22 +7551,22 @@
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A4" s="42" t="str">
+      <c r="A4" s="40" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="45">
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="52" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="53">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>336.1761705565811</v>
+        <v>356.15540515909811</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7457,12 +7582,12 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1">
       <c r="A5" s="24"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="55">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45095.17617055658</v>
+        <v>45115.155405159101</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7477,7 +7602,7 @@
       <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="37" t="str">
+      <c r="A6" s="35" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
       </c>
@@ -7485,12 +7610,12 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="88">
-        <f>SUM(B7:B9)</f>
-        <v>0</v>
+      <c r="D6" s="76">
+        <f>SUM(B6:B8)/COUNTA(B6:B8)*100%</f>
+        <v>4.0160642570281129E-3</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="22"/>
@@ -7507,7 +7632,7 @@
       <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="38" t="str">
+      <c r="A7" s="36" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
       </c>
@@ -7515,8 +7640,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="89"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7532,7 +7657,7 @@
       <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="39" t="str">
+      <c r="A8" s="37" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
       </c>
@@ -7540,8 +7665,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="90"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7574,7 +7699,7 @@
       <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="34" t="str">
+      <c r="A10" s="32" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
       </c>
@@ -7582,12 +7707,12 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="64">
-        <f>SUM(B10:B13)</f>
-        <v>5.2498548451555986E-2</v>
+      <c r="D10" s="62">
+        <f>SUM(B10:B13)/COUNTA(B10:B13)*100%</f>
+        <v>1.3124637112888997E-2</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="22"/>
@@ -7604,7 +7729,7 @@
       <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="35" t="str">
+      <c r="A11" s="33" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
       </c>
@@ -7612,8 +7737,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="65"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7629,7 +7754,7 @@
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="35" t="str">
+      <c r="A12" s="33" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
       </c>
@@ -7637,8 +7762,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="65"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7654,7 +7779,7 @@
       <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A13" s="36" t="str">
+      <c r="A13" s="34" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
       </c>
@@ -7662,8 +7787,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7695,20 +7820,20 @@
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="96" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="93">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="69">
-        <f>SUM(B15:B16)</f>
-        <v>5.3571428571428568E-2</v>
+      <c r="D15" s="89">
+        <f>SUM(B15:B17)/COUNTA(B15:B17)*100%</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="22"/>
@@ -7724,17 +7849,17 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="33" t="str">
+    <row r="16" spans="1:17" ht="21" customHeight="1">
+      <c r="A16" s="97" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="94">
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7750,7 +7875,16 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A17" s="24"/>
+      <c r="A17" s="98" t="str">
+        <f>Сети!A7</f>
+        <v>Вопросы по сетям</v>
+      </c>
+      <c r="B17" s="95">
+        <f>Сети!A9*100%/Сети!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -7765,22 +7899,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A18" s="31" t="str">
-        <f>Git!A1</f>
-        <v>Git (курс)</v>
-      </c>
-      <c r="B18" s="48">
-        <f>Git!A3*100%/Git!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="50">
-        <f>SUM(B18)</f>
-        <v>0</v>
-      </c>
+    <row r="18" spans="1:17" ht="16.5" thickBot="1">
       <c r="E18" s="19"/>
       <c r="F18" s="22"/>
       <c r="G18" s="19"/>
@@ -7795,8 +7914,22 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A19" s="31" t="str">
+        <f>Git!A1</f>
+        <v>Git (курс)</v>
+      </c>
+      <c r="B19" s="46">
+        <f>Git!A3*100%/Git!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="48">
+        <f>SUM(B19)</f>
+        <v>0</v>
+      </c>
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
       <c r="G19" s="19"/>
@@ -7811,22 +7944,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="25" t="str">
-        <f>Spring!A1</f>
-        <v>Spring (курс)</v>
-      </c>
-      <c r="B20" s="28">
-        <f>Spring!A3*100%/Spring!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="74">
-        <f>SUM(B20:B23)</f>
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
       <c r="E20" s="19"/>
       <c r="F20" s="22"/>
       <c r="G20" s="19"/>
@@ -7841,17 +7959,22 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="26" t="str">
-        <f>Spring!A4</f>
-        <v>Spring проекты (курс)</v>
-      </c>
-      <c r="B21" s="29">
-        <f>Spring!A6*100%/Spring!B6</f>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A21" s="25" t="str">
+        <f>Spring!A1</f>
+        <v>Spring (курс)</v>
+      </c>
+      <c r="B21" s="87">
+        <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="75"/>
+      <c r="C21" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="101">
+        <f>SUM(B21:B24)/COUNTA(B21:B24)*100%</f>
+        <v>0</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -7866,17 +7989,17 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="str">
-        <f>Spring!A7</f>
-        <v>Spring в действии (книга)</v>
-      </c>
-      <c r="B22" s="29">
-        <f>Spring!A9*100%/Spring!B9</f>
+        <f>Spring!A4</f>
+        <v>Spring проекты (курс)</v>
+      </c>
+      <c r="B22" s="99">
+        <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -7891,17 +8014,17 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A23" s="27" t="str">
-        <f>Spring!A10</f>
-        <v>Spring вопросы на собеседовании</v>
-      </c>
-      <c r="B23" s="30">
-        <f>Spring!A12*100%/Spring!B12</f>
+    <row r="23" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A23" s="26" t="str">
+        <f>Spring!A7</f>
+        <v>Spring в действии (книга)</v>
+      </c>
+      <c r="B23" s="99">
+        <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="76"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -7916,11 +8039,17 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="21"/>
+    <row r="24" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A24" s="27" t="str">
+        <f>Spring!A10</f>
+        <v>Spring вопросы на собеседовании</v>
+      </c>
+      <c r="B24" s="88">
+        <f>Spring!A12*100%/Spring!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="19"/>
@@ -8152,6 +8281,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
@@ -8159,10 +8292,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8175,7 +8304,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -8190,10 +8319,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
@@ -8212,10 +8341,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="82"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
@@ -8230,14 +8359,14 @@
         <v>17</v>
       </c>
       <c r="B6" s="14">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
@@ -8282,10 +8411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8304,10 +8433,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8326,10 +8455,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="92"/>
+      <c r="B7" s="80"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8376,10 +8505,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8398,10 +8527,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8420,10 +8549,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8442,10 +8571,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="92"/>
+      <c r="B10" s="80"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8480,10 +8609,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFCCA27-2B5A-43A0-8328-6BD008C1B7A2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -8494,10 +8623,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8516,10 +8645,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8530,22 +8659,46 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>914</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="80"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -8564,10 +8717,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8609,10 +8762,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8634,10 +8787,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8656,10 +8809,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="92"/>
+      <c r="B7" s="80"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -8678,10 +8831,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="92"/>
+      <c r="B10" s="80"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50F8F5-A569-4B81-94CD-A2920039F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60FBFE5-5B69-4028-B279-501F0A190304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -898,22 +898,49 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,6 +985,24 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,51 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6789,15 +6789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>27450</xdr:colOff>
+      <xdr:colOff>20646</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25302</xdr:rowOff>
+      <xdr:rowOff>18498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>794176</xdr:colOff>
+      <xdr:colOff>787372</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>111787</xdr:rowOff>
+      <xdr:rowOff>104983</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6825,11 +6825,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4010215</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>162672</xdr:rowOff>
+      <xdr:colOff>3442608</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31492</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3230372" cy="1331134"/>
+    <xdr:ext cx="3721554" cy="1091097"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -6843,13 +6843,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010215" y="4986404"/>
-          <a:ext cx="3230372" cy="1331134"/>
+          <a:off x="3442608" y="5066135"/>
+          <a:ext cx="3721554" cy="1091097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -6866,8 +6868,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -6889,32 +6891,27 @@
             </a:rPr>
             <a:t>Выполнение абсолютно всех пунктов не обязательно.</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-          </a:br>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Поэтому анализ является сильно примерным, </a:t>
+            <a:t>Поэтому анализ является сильно примерным, но он явно отражет весь прогресс обучения.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1000" baseline="0">
+            <a:rPr lang="en-US" sz="1000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>но он явно отражет весь прогресс обучения.</a:t>
+            <a:t> </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ru-RU" sz="1000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -6922,9 +6919,13 @@
             </a:rPr>
             <a:t>Так же нужно учитывать, что я самостоятельно,</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -6932,9 +6933,13 @@
             </a:rPr>
             <a:t>по мере изучения, добавляю вопросы, которые могут</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -7015,15 +7020,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>809965</xdr:colOff>
+      <xdr:colOff>823573</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>141069</xdr:rowOff>
+      <xdr:rowOff>134265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>191903</xdr:colOff>
+      <xdr:colOff>205511</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>29726</xdr:rowOff>
+      <xdr:rowOff>22922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7087,15 +7092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>814361</xdr:colOff>
+      <xdr:colOff>821165</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>20904</xdr:rowOff>
+      <xdr:rowOff>14100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>196299</xdr:colOff>
+      <xdr:colOff>203103</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107389</xdr:rowOff>
+      <xdr:rowOff>100585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7123,13 +7128,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>812897</xdr:colOff>
+      <xdr:colOff>826505</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>48747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>194835</xdr:colOff>
+      <xdr:colOff>208443</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>135232</xdr:rowOff>
     </xdr:to>
@@ -7159,13 +7164,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>27450</xdr:colOff>
+      <xdr:colOff>20646</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>794176</xdr:colOff>
+      <xdr:colOff>787372</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133766</xdr:rowOff>
     </xdr:to>
@@ -7433,7 +7438,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -7457,10 +7462,10 @@
       <c r="B1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="66"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="49" t="s">
         <v>45</v>
       </c>
@@ -7494,10 +7499,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="81">
         <f>SUM(B2:B4)/COUNTA(B2:B4)*100%</f>
         <v>0.26386569017945094</v>
       </c>
@@ -7529,8 +7534,8 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.3922651933701654E-2</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="71"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="50" t="s">
         <v>26</v>
       </c>
@@ -7559,8 +7564,8 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="72"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="50" t="s">
         <v>27</v>
       </c>
@@ -7610,10 +7615,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="87">
         <f>SUM(B6:B8)/COUNTA(B6:B8)*100%</f>
         <v>4.0160642570281129E-3</v>
       </c>
@@ -7640,8 +7645,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="77"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7665,8 +7670,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7707,10 +7712,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="93">
         <f>SUM(B10:B13)/COUNTA(B10:B13)*100%</f>
         <v>1.3124637112888997E-2</v>
       </c>
@@ -7737,8 +7742,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="63"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7762,8 +7767,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="63"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7787,8 +7792,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7820,18 +7825,18 @@
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A15" s="96" t="str">
+      <c r="A15" s="64" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="61">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="73">
         <f>SUM(B15:B17)/COUNTA(B15:B17)*100%</f>
         <v>1.7857142857142856E-2</v>
       </c>
@@ -7850,16 +7855,16 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="21" customHeight="1">
-      <c r="A16" s="97" t="str">
+      <c r="A16" s="65" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B16" s="94">
+      <c r="B16" s="62">
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7875,16 +7880,16 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A17" s="98" t="str">
+      <c r="A17" s="66" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="63">
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="91"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -7964,14 +7969,14 @@
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
-      <c r="B21" s="87">
+      <c r="B21" s="59">
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="69">
         <f>SUM(B21:B24)/COUNTA(B21:B24)*100%</f>
         <v>0</v>
       </c>
@@ -7994,12 +7999,12 @@
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="67">
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -8019,12 +8024,12 @@
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="67">
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8044,12 +8049,12 @@
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="60">
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="19"/>
@@ -8319,10 +8324,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
@@ -8341,10 +8346,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="99"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
@@ -8363,10 +8368,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="99"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
@@ -8411,10 +8416,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8433,10 +8438,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8455,10 +8460,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8505,10 +8510,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8527,10 +8532,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8549,10 +8554,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="99"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8571,10 +8576,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="97"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8623,10 +8628,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8645,10 +8650,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8670,10 +8675,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8717,10 +8722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8762,10 +8767,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8787,10 +8792,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8809,10 +8814,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -8831,10 +8836,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="97"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60FBFE5-5B69-4028-B279-501F0A190304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41222C9-53B9-4519-AFA6-2B3D5CBECD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -6826,10 +6826,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3442608</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31492</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174367</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3721554" cy="1091097"/>
+    <xdr:ext cx="3721554" cy="1233972"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -6843,15 +6843,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3442608" y="5066135"/>
-          <a:ext cx="3721554" cy="1091097"/>
+          <a:off x="3442608" y="4998099"/>
+          <a:ext cx="3721554" cy="1233972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -7438,7 +7436,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41222C9-53B9-4519-AFA6-2B3D5CBECD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49758CE3-0D13-448F-9DBC-4C34315CDC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -2797,7 +2797,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F3" s="52">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.0539735574023435E-2</v>
+        <v>5.9311665398584838E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="F4" s="53">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>356.15540515909811</v>
+        <v>303.48161494095353</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="F5" s="55">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45115.155405159101</v>
+        <v>45062.481614940953</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7924,14 +7924,14 @@
       </c>
       <c r="B19" s="46">
         <f>Git!A3*100%/Git!B3</f>
-        <v>0</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="48">
         <f>SUM(B19)</f>
-        <v>0</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
@@ -8710,7 +8710,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>19</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49758CE3-0D13-448F-9DBC-4C34315CDC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B151610-76AE-4FDE-B256-7CED192ADA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="5" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2797,7 +2797,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.15789473684210525</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7435,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F3" s="52">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.9311665398584838E-2</v>
+        <v>6.2235642006771973E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="F4" s="53">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>303.48161494095353</v>
+        <v>289.22333601124234</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="F5" s="55">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45062.481614940953</v>
+        <v>45048.223336011244</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7924,14 +7924,14 @@
       </c>
       <c r="B19" s="46">
         <f>Git!A3*100%/Git!B3</f>
-        <v>0.15789473684210525</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="48">
         <f>SUM(B19)</f>
-        <v>0.15789473684210525</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
@@ -8709,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B851B2C-5898-47F3-9932-C07DFE0DFA15}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6">
         <v>19</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B151610-76AE-4FDE-B256-7CED192ADA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B042DB72-9515-43F5-B314-F75FC8A2E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="5" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2625" yWindow="585" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Лекций просмотрено</t>
   </si>
@@ -185,6 +185,24 @@
   <si>
     <t>Вопросы по сетям</t>
   </si>
+  <si>
+    <t>Страниц прочитано</t>
+  </si>
+  <si>
+    <t>Философия Java (книга)</t>
+  </si>
+  <si>
+    <t>Параллельное выполнение</t>
+  </si>
+  <si>
+    <t>кол-во страниц</t>
+  </si>
+  <si>
+    <t>Философия java темы</t>
+  </si>
+  <si>
+    <t>Коллекции объектов</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -444,19 +462,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -655,34 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -776,11 +753,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,49 +913,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -887,120 +964,50 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,6 +1028,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1029,12 +1124,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF71BD7A"/>
       <color rgb="FFEA7E7E"/>
       <color rgb="FFFF6767"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FF3399FF"/>
       <color rgb="FFE785D2"/>
       <color rgb="FFC438F6"/>
@@ -1143,9 +1238,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$2:$A$4</c:f>
+              <c:f>Анализ!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Продвинутая Java (курс)</c:v>
                 </c:pt>
@@ -1155,27 +1250,26 @@
                 <c:pt idx="2">
                   <c:v>Практика Java (курс)</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Философия Java (книга)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:innerShdw>
             </a:effectLst>
           </c:spPr>
@@ -1239,9 +1333,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$2:$A$4</c:f>
+              <c:f>Анализ!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Продвинутая Java (курс)</c:v>
                 </c:pt>
@@ -1251,15 +1345,18 @@
                 <c:pt idx="2">
                   <c:v>Практика Java (курс)</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Философия Java (книга)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$2:$B$4</c:f>
+              <c:f>Анализ!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.69767441860465118</c:v>
                 </c:pt>
@@ -1268,6 +1365,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2910052910052907E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,7 +1621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$6:$A$8</c:f>
+              <c:f>Анализ!$A$7:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1620,7 +1720,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$6:$A$8</c:f>
+              <c:f>Анализ!$A$7:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1637,7 +1737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$6:$B$8</c:f>
+              <c:f>Анализ!$B$7:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1929,7 +2029,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$10:$A$13</c:f>
+              <c:f>Анализ!$A$11:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2028,7 +2128,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$10:$A$13</c:f>
+              <c:f>Анализ!$A$11:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2048,7 +2148,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$10:$B$13</c:f>
+              <c:f>Анализ!$B$11:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2319,7 +2419,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$15:$A$16</c:f>
+              <c:f>Анализ!$A$16:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2415,7 +2515,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$15:$A$16</c:f>
+              <c:f>Анализ!$A$16:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2429,7 +2529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$15:$B$16</c:f>
+              <c:f>Анализ!$B$16:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2691,7 +2791,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$19</c:f>
+              <c:f>Анализ!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2717,11 +2817,37 @@
             </a:ln>
             <a:effectLst>
               <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="CCECFF"/>
               </a:innerShdw>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCECFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-831D-4122-8CEE-2CB4D81BEE1B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
@@ -2781,7 +2907,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$19</c:f>
+              <c:f>Анализ!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2792,12 +2918,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$19</c:f>
+              <c:f>Анализ!$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,7 +3183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Анализ!$A$21:$A$24</c:f>
+              <c:f>Анализ!$A$22:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3156,7 +3282,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Анализ!$A$21:$A$24</c:f>
+              <c:f>Анализ!$A$22:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3176,7 +3302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Анализ!$B$21:$B$24</c:f>
+              <c:f>Анализ!$B$22:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6824,12 +6950,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3442608</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174367</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1024721</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174368</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3721554" cy="1233972"/>
+    <xdr:ext cx="5862585" cy="1233972"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -6843,8 +6969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3442608" y="4998099"/>
-          <a:ext cx="3721554" cy="1233972"/>
+          <a:off x="11326375" y="174368"/>
+          <a:ext cx="5862585" cy="1233972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6866,7 +6992,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -7435,8 +7561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -7456,25 +7582,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="56">
+      <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
         <v>18</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="58">
+      <c r="H1" s="54">
         <f>DATE(2022,8,17)</f>
         <v>44790</v>
       </c>
@@ -7488,26 +7614,26 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="A2" s="38" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="81">
-        <f>SUM(B2:B4)/COUNTA(B2:B4)*100%</f>
-        <v>0.26386569017945094</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="83">
+        <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
+        <v>0.21112678086210143</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
         <v>13</v>
       </c>
@@ -7523,23 +7649,23 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="39" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="42">
         <f>Java!A6*100%/Java!B6</f>
         <v>9.3922651933701654E-2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="50" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>6.2235642006771973E-2</v>
+        <v>0.10903473851347083</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7553,23 +7679,23 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A4" s="40" t="str">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A4" s="39" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="42">
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>289.22333601124234</v>
+        <v>174.2563907524997</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7584,13 +7710,22 @@
       <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="E5" s="54" t="s">
+      <c r="A5" s="39" t="str">
+        <f>Java!A10</f>
+        <v>Философия Java (книга)</v>
+      </c>
+      <c r="B5" s="30">
+        <f>Java!A12*100%/Java!B12</f>
+        <v>5.2910052910052907E-2</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45048.223336011244</v>
+        <v>44933.256390752496</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7604,22 +7739,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="35" t="str">
-        <f>АиСД!A1</f>
-        <v>Задачи для собеседований Java LeetCode</v>
-      </c>
-      <c r="B6" s="28">
-        <f>АиСД!A3*100%/АиСД!B3</f>
-        <v>1.2048192771084338E-2</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="87">
-        <f>SUM(B6:B8)/COUNTA(B6:B8)*100%</f>
-        <v>4.0160642570281129E-3</v>
-      </c>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="E6" s="19"/>
       <c r="F6" s="22"/>
       <c r="G6" s="19"/>
@@ -7635,16 +7755,21 @@
       <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="36" t="str">
-        <f>АиСД!A4</f>
-        <v>Алгоритмы и структуры данных (Алишев)</v>
-      </c>
-      <c r="B7" s="29">
-        <f>АиСД!A6*100%/АиСД!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="88"/>
+      <c r="A7" s="35" t="str">
+        <f>АиСД!A1</f>
+        <v>Задачи для собеседований Java LeetCode</v>
+      </c>
+      <c r="B7" s="28">
+        <f>АиСД!A3*100%/АиСД!B3</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="89">
+        <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
+        <v>4.0160642570281129E-3</v>
+      </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
       <c r="G7" s="19"/>
@@ -7659,17 +7784,17 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="37" t="str">
-        <f>АиСД!A7</f>
-        <v>Книга Грокаем Алгоритмы</v>
-      </c>
-      <c r="B8" s="30">
-        <f>АиСД!A9*100%/АиСД!B9</f>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A8" s="36" t="str">
+        <f>АиСД!A4</f>
+        <v>Алгоритмы и структуры данных (Алишев)</v>
+      </c>
+      <c r="B8" s="29">
+        <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="89"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7685,8 +7810,16 @@
       <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="24"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="37" t="str">
+        <f>АиСД!A7</f>
+        <v>Книга Грокаем Алгоритмы</v>
+      </c>
+      <c r="B9" s="30">
+        <f>АиСД!A9*100%/АиСД!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="19"/>
       <c r="F9" s="22"/>
       <c r="G9" s="19"/>
@@ -7701,22 +7834,9 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="32" t="str">
-        <f>'Базы данных'!A1</f>
-        <v>PostgreSql (курс)</v>
-      </c>
-      <c r="B10" s="28">
-        <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>1.3793103448275862E-2</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="93">
-        <f>SUM(B10:B13)/COUNTA(B10:B13)*100%</f>
-        <v>1.3124637112888997E-2</v>
-      </c>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="24"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="19"/>
       <c r="F10" s="22"/>
       <c r="G10" s="19"/>
@@ -7731,17 +7851,22 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="33" t="str">
-        <f>'Базы данных'!A4</f>
-        <v>Вопросы SQL</v>
-      </c>
-      <c r="B11" s="29">
-        <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="94"/>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A11" s="32" t="str">
+        <f>'Базы данных'!A1</f>
+        <v>PostgreSql (курс)</v>
+      </c>
+      <c r="B11" s="28">
+        <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
+        <v>1.3793103448275862E-2</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="95">
+        <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
+        <v>1.3124637112888997E-2</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -7756,17 +7881,17 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
       <c r="A12" s="33" t="str">
-        <f>'Базы данных'!A7</f>
-        <v>Задачки SQL (LeetCode)</v>
+        <f>'Базы данных'!A4</f>
+        <v>Вопросы SQL</v>
       </c>
       <c r="B12" s="29">
-        <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
+        <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="C12" s="93"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7781,17 +7906,17 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A13" s="34" t="str">
-        <f>'Базы данных'!A10</f>
-        <v>Дейт. Введение в системы баз данных (книга)</v>
-      </c>
-      <c r="B13" s="30">
-        <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
-        <v>9.2936802973977699E-3</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="95"/>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A13" s="33" t="str">
+        <f>'Базы данных'!A7</f>
+        <v>Задачки SQL (LeetCode)</v>
+      </c>
+      <c r="B13" s="29">
+        <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7807,7 +7932,16 @@
       <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="34" t="str">
+        <f>'Базы данных'!A10</f>
+        <v>Дейт. Введение в системы баз данных (книга)</v>
+      </c>
+      <c r="B14" s="30">
+        <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
+        <v>9.2936802973977699E-3</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
       <c r="G14" s="19"/>
@@ -7822,22 +7956,8 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A15" s="64" t="str">
-        <f>Сети!A1</f>
-        <v>Введение в комп. сети (Андрей)</v>
-      </c>
-      <c r="B15" s="61">
-        <f>Сети!A3*100%/Сети!B3</f>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="73">
-        <f>SUM(B15:B17)/COUNTA(B15:B17)*100%</f>
-        <v>1.7857142857142856E-2</v>
-      </c>
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="24"/>
       <c r="E15" s="19"/>
       <c r="F15" s="22"/>
       <c r="G15" s="19"/>
@@ -7853,16 +7973,21 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="21" customHeight="1">
-      <c r="A16" s="65" t="str">
-        <f>Сети!A4</f>
-        <v>Компьютерные сети (книга)</v>
-      </c>
-      <c r="B16" s="62">
-        <f>Сети!A6*100%/Сети!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="60" t="str">
+        <f>Сети!A1</f>
+        <v>Введение в комп. сети (Андрей)</v>
+      </c>
+      <c r="B16" s="57">
+        <f>Сети!A3*100%/Сети!B3</f>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="64">
+        <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
@@ -7877,17 +8002,17 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A17" s="66" t="str">
-        <f>Сети!A7</f>
-        <v>Вопросы по сетям</v>
-      </c>
-      <c r="B17" s="63">
-        <f>Сети!A9*100%/Сети!B9</f>
+    <row r="17" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A17" s="61" t="str">
+        <f>Сети!A4</f>
+        <v>Компьютерные сети (книга)</v>
+      </c>
+      <c r="B17" s="58">
+        <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -7902,7 +8027,17 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="16.5" thickBot="1">
+    <row r="18" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A18" s="62" t="str">
+        <f>Сети!A7</f>
+        <v>Вопросы по сетям</v>
+      </c>
+      <c r="B18" s="59">
+        <f>Сети!A9*100%/Сети!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="19"/>
       <c r="F18" s="22"/>
       <c r="G18" s="19"/>
@@ -7917,22 +8052,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A19" s="31" t="str">
-        <f>Git!A1</f>
-        <v>Git (курс)</v>
-      </c>
-      <c r="B19" s="46">
-        <f>Git!A3*100%/Git!B3</f>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="48">
-        <f>SUM(B19)</f>
-        <v>0.21052631578947367</v>
-      </c>
+    <row r="19" spans="1:17" ht="16.5" thickBot="1">
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
       <c r="G19" s="19"/>
@@ -7948,6 +8068,21 @@
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A20" s="31" t="str">
+        <f>Git!A1</f>
+        <v>Git (курс)</v>
+      </c>
+      <c r="B20" s="43">
+        <f>Git!A3*100%/Git!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="45">
+        <f>SUM(B20)</f>
+        <v>1</v>
+      </c>
       <c r="E20" s="19"/>
       <c r="F20" s="22"/>
       <c r="G20" s="19"/>
@@ -7962,22 +8097,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A21" s="25" t="str">
-        <f>Spring!A1</f>
-        <v>Spring (курс)</v>
-      </c>
-      <c r="B21" s="59">
-        <f>Spring!A3*100%/Spring!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="69">
-        <f>SUM(B21:B24)/COUNTA(B21:B24)*100%</f>
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -7993,16 +8113,21 @@
       <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A22" s="26" t="str">
-        <f>Spring!A4</f>
-        <v>Spring проекты (курс)</v>
-      </c>
-      <c r="B22" s="67">
-        <f>Spring!A6*100%/Spring!B6</f>
+      <c r="A22" s="25" t="str">
+        <f>Spring!A1</f>
+        <v>Spring (курс)</v>
+      </c>
+      <c r="B22" s="55">
+        <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
+      <c r="C22" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="101">
+        <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
@@ -8019,15 +8144,15 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="A23" s="26" t="str">
-        <f>Spring!A7</f>
-        <v>Spring в действии (книга)</v>
-      </c>
-      <c r="B23" s="67">
-        <f>Spring!A9*100%/Spring!B9</f>
+        <f>Spring!A4</f>
+        <v>Spring проекты (курс)</v>
+      </c>
+      <c r="B23" s="63">
+        <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8042,17 +8167,17 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A24" s="27" t="str">
-        <f>Spring!A10</f>
-        <v>Spring вопросы на собеседовании</v>
-      </c>
-      <c r="B24" s="60">
-        <f>Spring!A12*100%/Spring!B12</f>
+    <row r="24" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A24" s="26" t="str">
+        <f>Spring!A7</f>
+        <v>Spring в действии (книга)</v>
+      </c>
+      <c r="B24" s="63">
+        <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="19"/>
@@ -8067,11 +8192,17 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="21"/>
+    <row r="25" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A25" s="27" t="str">
+        <f>Spring!A10</f>
+        <v>Spring вопросы на собеседовании</v>
+      </c>
+      <c r="B25" s="56">
+        <f>Spring!A12*100%/Spring!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="19"/>
       <c r="F25" s="22"/>
       <c r="G25" s="19"/>
@@ -8283,18 +8414,17 @@
       <c r="A43" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
+  <mergeCells count="10">
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8304,10 +8434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -8316,40 +8446,69 @@
     <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="97"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="70"/>
+      <c r="D1" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1038-887</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="5">
         <v>30</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="98" t="s">
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f>361-323</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="99"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="72"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8357,7 +8516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="5">
         <v>17</v>
       </c>
@@ -8365,13 +8524,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="98" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="99"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="72"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8379,19 +8538,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A9" s="7">
         <v>0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="70"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A12" s="17">
+        <f>SUM(E2:E100)</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <f>SUM(F2:F100)</f>
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8414,10 +8598,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8436,10 +8620,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="70"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8458,10 +8642,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="70"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8508,10 +8692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8530,10 +8714,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="70"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8552,10 +8736,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="72"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8574,10 +8758,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="70"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8626,10 +8810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8648,10 +8832,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="70"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8673,10 +8857,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="70"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8709,8 +8893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B851B2C-5898-47F3-9932-C07DFE0DFA15}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8720,10 +8904,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8735,7 +8919,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <v>19</v>
@@ -8765,10 +8949,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8790,10 +8974,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="70"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8812,10 +8996,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="70"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -8834,10 +9018,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="70"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B042DB72-9515-43F5-B314-F75FC8A2E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5ECD47-7E74-45FA-93FC-F045E2224150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="585" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -995,6 +995,49 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,37 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,35 +1098,23 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7562,7 +7562,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -7583,13 +7583,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1">
       <c r="A1" s="40"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="46" t="s">
         <v>45</v>
       </c>
@@ -7623,10 +7623,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="87">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
         <v>0.21112678086210143</v>
       </c>
@@ -7658,8 +7658,8 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.3922651933701654E-2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="47" t="s">
         <v>26</v>
       </c>
@@ -7688,8 +7688,8 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="47" t="s">
         <v>27</v>
       </c>
@@ -7718,9 +7718,9 @@
         <f>Java!A12*100%/Java!B12</f>
         <v>5.2910052910052907E-2</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="67" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="51">
@@ -7763,10 +7763,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="93">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
         <v>4.0160642570281129E-3</v>
       </c>
@@ -7793,8 +7793,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7818,8 +7818,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="19"/>
       <c r="F9" s="22"/>
       <c r="G9" s="19"/>
@@ -7860,10 +7860,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
         <v>1.3124637112888997E-2</v>
       </c>
@@ -7890,8 +7890,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7915,8 +7915,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7940,8 +7940,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>9.2936802973977699E-3</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
       <c r="G14" s="19"/>
@@ -7981,10 +7981,10 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="79">
         <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
         <v>1.7857142857142856E-2</v>
       </c>
@@ -8011,8 +8011,8 @@
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -8036,8 +8036,8 @@
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="19"/>
       <c r="F18" s="22"/>
       <c r="G18" s="19"/>
@@ -8121,10 +8121,10 @@
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="76">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
         <v>0</v>
       </c>
@@ -8151,8 +8151,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8176,8 +8176,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="102"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="19"/>
@@ -8201,8 +8201,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="103"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="19"/>
       <c r="F25" s="22"/>
       <c r="G25" s="19"/>
@@ -8452,17 +8452,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="D1" s="104" t="s">
+      <c r="B1" s="100"/>
+      <c r="D1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8503,10 +8503,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="102"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -8525,10 +8525,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -8547,10 +8547,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -8598,10 +8598,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8620,10 +8620,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8642,10 +8642,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8692,10 +8692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8714,10 +8714,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8736,10 +8736,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8758,10 +8758,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8799,7 +8799,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -8810,10 +8810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8832,10 +8832,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8857,10 +8857,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="6">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8904,10 +8904,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8949,10 +8949,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8974,10 +8974,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8996,10 +8996,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -9018,10 +9018,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5ECD47-7E74-45FA-93FC-F045E2224150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A35A99-C817-45C3-8C12-AC0BA1E316CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="585" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -2162,7 +2162,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2936802973977699E-3</c:v>
+                  <c:v>1.3011152416356878E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10903473851347083</v>
+        <v>0.10924126474230188</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>174.2563907524997</v>
+        <v>173.9269500844818</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44933.256390752496</v>
+        <v>44932.926950084482</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>1.3124637112888997E-2</v>
+        <v>1.4054005142628773E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="B14" s="30">
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
-        <v>9.2936802973977699E-3</v>
+        <v>1.3011152416356878E-2</v>
       </c>
       <c r="C14" s="98"/>
       <c r="D14" s="72"/>
@@ -8681,7 +8681,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -8773,8 +8773,8 @@
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="5">
-        <f>51-41</f>
-        <v>10</v>
+        <f>55-41</f>
+        <v>14</v>
       </c>
       <c r="B12" s="6">
         <v>1076</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A35A99-C817-45C3-8C12-AC0BA1E316CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158E94B-05E9-4FE7-81A1-7F4EB385BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="585" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2625" yWindow="585" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2153,7 +2153,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.3793103448275862E-2</c:v>
+                  <c:v>2.7586206896551724E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7561,7 +7561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10924126474230188</v>
+        <v>0.1100075482672061</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>173.9269500844818</v>
+        <v>172.71542088956829</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44932.926950084482</v>
+        <v>44931.715420889566</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7858,14 +7858,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>1.3793103448275862E-2</v>
+        <v>2.7586206896551724E-2</v>
       </c>
       <c r="C11" s="96" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>1.4054005142628773E-2</v>
+        <v>1.7502281004697737E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8680,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voland/Documents/JavaBackend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158E94B-05E9-4FE7-81A1-7F4EB385BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8CA770-19AF-AF40-9A59-AE4D0841865B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="585" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="33600" windowHeight="18340" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -25,15 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -211,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,7 +1109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1149,7 +1140,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1222,7 +1213,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1305,7 +1296,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1430,7 +1421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1486,7 +1477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1531,7 +1522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1545,7 +1536,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1605,7 +1596,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1692,7 +1683,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1814,7 +1805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1870,7 +1861,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1915,7 +1906,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1929,7 +1920,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2003,7 +1994,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2100,7 +2091,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2225,7 +2216,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2284,7 +2275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2329,7 +2320,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2343,7 +2334,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2403,7 +2394,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2487,7 +2478,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2534,7 +2525,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.3571428571428568E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2600,7 +2591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2656,7 +2647,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2701,7 +2692,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2715,7 +2706,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2775,7 +2766,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2879,7 +2870,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2986,7 +2977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3042,7 +3033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3087,7 +3078,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3101,7 +3092,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3167,7 +3158,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3254,7 +3245,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3381,7 +3372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3440,7 +3431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3485,7 +3476,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7561,27 +7552,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="52.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="13" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.125" style="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.125" style="1"/>
+    <col min="6" max="6" width="14.19921875" style="12" customWidth="1"/>
+    <col min="7" max="8" width="13.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.19921875" style="1"/>
+    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="68" t="s">
         <v>24</v>
@@ -7595,7 +7585,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7614,7 +7604,7 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
@@ -7635,7 +7625,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7649,7 +7639,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
@@ -7665,7 +7655,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.1100075482672061</v>
+        <v>0.10515752692983434</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7679,7 +7669,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
@@ -7695,7 +7685,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>172.71542088956829</v>
+        <v>180.6813126432464</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7709,7 +7699,7 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1">
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="str">
         <f>Java!A10</f>
         <v>Философия Java (книга)</v>
@@ -7725,7 +7715,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44931.715420889566</v>
+        <v>44939.681312643246</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7739,7 +7729,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="19"/>
       <c r="F6" s="22"/>
       <c r="G6" s="19"/>
@@ -7754,7 +7744,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
@@ -7784,7 +7774,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
@@ -7809,7 +7799,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
@@ -7834,7 +7824,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="D10" s="1"/>
       <c r="E10" s="19"/>
@@ -7851,7 +7841,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
@@ -7881,7 +7871,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
@@ -7906,7 +7896,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1">
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
@@ -7931,7 +7921,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
@@ -7956,7 +7946,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="E15" s="19"/>
       <c r="F15" s="22"/>
@@ -7972,21 +7962,21 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1">
+    <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="60" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
       <c r="B16" s="57">
         <f>Сети!A3*100%/Сети!B3</f>
-        <v>5.3571428571428568E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="79">
         <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
-        <v>1.7857142857142856E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="22"/>
@@ -8002,7 +7992,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="61" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
@@ -8027,7 +8017,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="19.5" thickBot="1">
+    <row r="18" spans="1:17" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
@@ -8052,7 +8042,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" thickBot="1">
+    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
       <c r="G19" s="19"/>
@@ -8067,7 +8057,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
@@ -8097,7 +8087,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -8112,7 +8102,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
@@ -8142,7 +8132,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1">
+    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
@@ -8167,7 +8157,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1">
+    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
@@ -8192,7 +8182,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
@@ -8217,7 +8207,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -8236,7 +8226,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
@@ -8255,7 +8245,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
@@ -8274,7 +8264,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -8293,7 +8283,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -8312,7 +8302,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -8331,7 +8321,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -8350,7 +8340,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="19"/>
@@ -8369,48 +8359,48 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
     </row>
   </sheetData>
@@ -8440,18 +8430,18 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="1"/>
+    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -8466,7 +8456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8484,7 +8474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -8502,13 +8492,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="102"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8516,7 +8506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>17</v>
       </c>
@@ -8524,13 +8514,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="102"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8538,7 +8528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8546,13 +8536,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="100"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -8560,7 +8550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <f>SUM(E2:E100)</f>
         <v>10</v>
@@ -8590,20 +8580,20 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="27.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8611,7 +8601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8619,13 +8609,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="99" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8633,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8641,13 +8631,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="99" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="100"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8655,7 +8645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8680,24 +8670,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8705,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -8713,13 +8703,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="99" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8727,7 +8717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8735,13 +8725,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="102"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8749,7 +8739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8757,13 +8747,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="100"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8771,7 +8761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>55-41</f>
         <v>14</v>
@@ -8799,23 +8789,23 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="23.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8823,21 +8813,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="99" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8845,7 +8835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8856,13 +8846,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="99" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="100"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8870,7 +8860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8897,19 +8887,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8917,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>19</v>
       </c>
@@ -8941,20 +8931,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="104"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8962,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1">
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8973,13 +8963,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="99" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8987,7 +8977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1">
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8995,13 +8985,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="99" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="100"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -9009,7 +8999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -9017,13 +9007,13 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="100"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -9031,7 +9021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1">
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>0</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voland/Documents/JavaBackend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8CA770-19AF-AF40-9A59-AE4D0841865B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FACC8A-01F2-4E4A-B897-A2BB351935F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="33600" windowHeight="18340" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1410" yWindow="2520" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -25,6 +25,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -202,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,7 +1119,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,7 +1150,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1213,7 +1223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1296,7 +1306,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1352,7 +1362,7 @@
                   <c:v>0.69767441860465118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3922651933701654E-2</c:v>
+                  <c:v>9.8901098901098897E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1421,7 +1431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1477,7 +1487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1522,7 +1532,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1536,7 +1546,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1596,7 +1606,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1683,7 +1693,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1805,7 +1815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1861,7 +1871,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1906,7 +1916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1920,7 +1930,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1994,7 +2004,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2091,7 +2101,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2144,7 +2154,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.7586206896551724E-2</c:v>
+                  <c:v>5.5172413793103448E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -2216,7 +2226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2275,7 +2285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2320,7 +2330,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2334,7 +2344,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2394,7 +2404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2478,7 +2488,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2591,7 +2601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2647,7 +2657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2692,7 +2702,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2706,7 +2716,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2766,7 +2776,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2870,7 +2880,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2977,7 +2987,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3033,7 +3043,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3078,7 +3088,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3092,7 +3102,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3158,7 +3168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3245,7 +3255,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3372,7 +3382,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3431,7 +3441,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3476,7 +3486,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7552,26 +7562,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="13" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="12" customWidth="1"/>
-    <col min="7" max="8" width="13.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.19921875" style="1"/>
-    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.19921875" style="1"/>
+    <col min="6" max="6" width="14.25" style="12" customWidth="1"/>
+    <col min="7" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.25" style="1"/>
+    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1">
       <c r="A1" s="40"/>
       <c r="B1" s="68" t="s">
         <v>24</v>
@@ -7604,7 +7614,7 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="A2" s="38" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
@@ -7618,7 +7628,7 @@
       </c>
       <c r="D2" s="87">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.21112678086210143</v>
+        <v>0.21237139260395074</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>30</v>
@@ -7639,14 +7649,14 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="39" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
       <c r="B3" s="42">
         <f>Java!A6*100%/Java!B6</f>
-        <v>9.3922651933701654E-2</v>
+        <v>9.8901098901098897E-2</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="88"/>
@@ -7655,7 +7665,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10515752692983434</v>
+        <v>0.1068714560805685</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7669,7 +7679,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="39" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
@@ -7685,7 +7695,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>180.6813126432464</v>
+        <v>177.78367299193749</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7699,7 +7709,7 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.5" thickBot="1">
       <c r="A5" s="39" t="str">
         <f>Java!A10</f>
         <v>Философия Java (книга)</v>
@@ -7715,7 +7725,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44939.681312643246</v>
+        <v>44936.783672991936</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7729,7 +7739,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="E6" s="19"/>
       <c r="F6" s="22"/>
       <c r="G6" s="19"/>
@@ -7744,7 +7754,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="35" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
@@ -7774,7 +7784,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
       <c r="A8" s="36" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
@@ -7799,7 +7809,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="37" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
@@ -7824,7 +7834,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="24"/>
       <c r="D10" s="1"/>
       <c r="E10" s="19"/>
@@ -7841,21 +7851,21 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
       <c r="A11" s="32" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>2.7586206896551724E-2</v>
+        <v>5.5172413793103448E-2</v>
       </c>
       <c r="C11" s="96" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>1.7502281004697737E-2</v>
+        <v>2.4398832728835671E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -7871,7 +7881,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
       <c r="A12" s="33" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
@@ -7896,7 +7906,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="16.5" customHeight="1">
       <c r="A13" s="33" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
@@ -7921,7 +7931,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="16.5" thickBot="1">
       <c r="A14" s="34" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
@@ -7946,7 +7956,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
       <c r="A15" s="24"/>
       <c r="E15" s="19"/>
       <c r="F15" s="22"/>
@@ -7962,7 +7972,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="21" customHeight="1">
       <c r="A16" s="60" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
@@ -7992,7 +8002,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="16.5" customHeight="1">
       <c r="A17" s="61" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
@@ -8017,7 +8027,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="19.5" thickBot="1">
       <c r="A18" s="62" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
@@ -8042,7 +8052,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="16.5" thickBot="1">
       <c r="E19" s="19"/>
       <c r="F19" s="22"/>
       <c r="G19" s="19"/>
@@ -8057,7 +8067,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
       <c r="A20" s="31" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
@@ -8087,7 +8097,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="E21" s="19"/>
       <c r="F21" s="22"/>
       <c r="G21" s="19"/>
@@ -8102,7 +8112,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
@@ -8132,7 +8142,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="A23" s="26" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
@@ -8157,7 +8167,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="A24" s="26" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
@@ -8182,7 +8192,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="27" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
@@ -8207,7 +8217,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -8226,7 +8236,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
@@ -8245,7 +8255,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
@@ -8264,7 +8274,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -8283,7 +8293,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -8302,7 +8312,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -8321,7 +8331,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -8340,7 +8350,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="19"/>
@@ -8359,48 +8369,48 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="19"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="19"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="19"/>
     </row>
   </sheetData>
@@ -8426,22 +8436,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.19921875" style="1"/>
+    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -8456,7 +8466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8474,7 +8484,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -8492,13 +8502,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="102"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8506,21 +8516,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="14">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="101" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="102"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8528,7 +8538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8536,13 +8546,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="99" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="100"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -8550,7 +8560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="17">
         <f>SUM(E2:E100)</f>
         <v>10</v>
@@ -8580,20 +8590,20 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="99" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8601,7 +8611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8609,13 +8619,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="99" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8623,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8631,13 +8641,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="99" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="100"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8645,7 +8655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8671,23 +8681,23 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="99" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8695,21 +8705,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="99" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8725,13 +8735,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="101" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="102"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8739,7 +8749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8747,13 +8757,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="99" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="100"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8761,7 +8771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="5">
         <f>55-41</f>
         <v>14</v>
@@ -8792,20 +8802,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="99" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8813,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -8821,13 +8831,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="99" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8835,7 +8845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8846,13 +8856,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="99" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="100"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8887,19 +8897,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8907,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.100000000000001" thickBot="1">
       <c r="A3" s="5">
         <v>19</v>
       </c>
@@ -8931,20 +8941,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="103" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="104"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8952,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -8963,13 +8973,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="99" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8977,7 +8987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8985,13 +8995,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="99" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="100"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8999,7 +9009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -9007,13 +9017,13 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="99" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="100"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -9021,7 +9031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1">
       <c r="A12" s="17">
         <v>0</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FACC8A-01F2-4E4A-B897-A2BB351935F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FEA18E-34FC-4F5A-8D8D-F1F2E37F7182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2520" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1410" yWindow="2520" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -7562,8 +7562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8436,7 +8436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -8917,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.100000000000001" thickBot="1">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="5">
         <v>19</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FEA18E-34FC-4F5A-8D8D-F1F2E37F7182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DBD8DD-CEF3-43B5-8F4E-7442108E2EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2520" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1200" yWindow="2325" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2154,7 +2154,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.5172413793103448E-2</c:v>
+                  <c:v>6.8965517241379309E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7562,7 +7562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.1068714560805685</v>
+        <v>0.10759740889363566</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>177.78367299193749</v>
+        <v>176.58417795899027</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44936.783672991936</v>
+        <v>44935.58417795899</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7858,14 +7858,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>5.5172413793103448E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="C11" s="96" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>2.4398832728835671E-2</v>
+        <v>2.7847108590904637E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8680,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DBD8DD-CEF3-43B5-8F4E-7442108E2EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E99805-D5D1-4A10-941F-37AD82FB3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="2325" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -2154,7 +2154,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.8965517241379309E-2</c:v>
+                  <c:v>7.586206896551724E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10759740889363566</v>
+        <v>0.10796038530016921</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>176.58417795899027</v>
+        <v>175.99047972247484</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44935.58417795899</v>
+        <v>44934.990479722474</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7858,14 +7858,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>6.8965517241379309E-2</v>
+        <v>7.586206896551724E-2</v>
       </c>
       <c r="C11" s="96" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>2.7847108590904637E-2</v>
+        <v>2.9571246521939116E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8681,7 +8681,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E99805-D5D1-4A10-941F-37AD82FB3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2710E68-22F8-489E-AC88-24A5C86FB7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2325" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1200" yWindow="2325" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2154,7 +2154,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.586206896551724E-2</c:v>
+                  <c:v>0.1103448275862069</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7562,7 +7562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10796038530016921</v>
+        <v>0.10977526733283709</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>175.99047972247484</v>
+        <v>173.0808811641721</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44934.990479722474</v>
+        <v>44932.080881164169</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7858,14 +7858,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>7.586206896551724E-2</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="C11" s="96" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>2.9571246521939116E-2</v>
+        <v>3.819193617711153E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8680,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2710E68-22F8-489E-AC88-24A5C86FB7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61579C8D-194A-4086-966E-EA01AAB008D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2325" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1200" yWindow="2325" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2154,7 +2154,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1103448275862069</c:v>
+                  <c:v>0.15862068965517243</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7562,7 +7562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10977526733283709</v>
+        <v>0.11231610217857213</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>173.0808811641721</v>
+        <v>169.16541467751233</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44932.080881164169</v>
+        <v>44928.165414677511</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7858,14 +7858,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.1103448275862069</v>
+        <v>0.15862068965517243</v>
       </c>
       <c r="C11" s="96" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="70">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>3.819193617711153E-2</v>
+        <v>5.0260901694352919E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8680,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61579C8D-194A-4086-966E-EA01AAB008D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F470D-ECEC-4B97-8361-A2F1E92CEBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2325" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -305,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -661,19 +661,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -685,28 +676,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -981,13 +950,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -996,16 +965,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1015,37 +975,37 @@
     <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,46 +1017,46 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,6 +1076,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7562,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7583,19 +7552,19 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1">
       <c r="A1" s="40"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="83"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="46" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7623,10 +7592,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="84">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
         <v>0.21237139260395074</v>
       </c>
@@ -7635,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7658,14 +7627,14 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.8901098901098897E-2</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="47" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.11231610217857213</v>
+        <v>0.10670029706964353</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7688,14 +7657,14 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="88"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="47" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>169.16541467751233</v>
+        <v>178.06885755527614</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7718,14 +7687,14 @@
         <f>Java!A12*100%/Java!B12</f>
         <v>5.2910052910052907E-2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="67" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44928.165414677511</v>
+        <v>44937.068857555278</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7763,10 +7732,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="90">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
         <v>4.0160642570281129E-3</v>
       </c>
@@ -7793,8 +7762,8 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="19"/>
@@ -7818,8 +7787,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="19"/>
       <c r="F9" s="22"/>
       <c r="G9" s="19"/>
@@ -7860,10 +7829,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>0.15862068965517243</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
         <v>5.0260901694352919E-2</v>
       </c>
@@ -7890,8 +7859,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="71"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7915,8 +7884,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7940,8 +7909,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>1.3011152416356878E-2</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
       <c r="G14" s="19"/>
@@ -7981,10 +7950,10 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="76">
         <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
         <v>2.3809523809523808E-2</v>
       </c>
@@ -8011,8 +7980,8 @@
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -8027,7 +7996,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" ht="19.5" thickBot="1">
+    <row r="18" spans="1:17" ht="16.5" thickBot="1">
       <c r="A18" s="62" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
@@ -8036,8 +8005,8 @@
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="19"/>
       <c r="F18" s="22"/>
       <c r="G18" s="19"/>
@@ -8121,10 +8090,10 @@
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="73">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
         <v>0</v>
       </c>
@@ -8151,8 +8120,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8176,8 +8145,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="77"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="19"/>
@@ -8201,8 +8170,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="78"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="19"/>
       <c r="F25" s="22"/>
       <c r="G25" s="19"/>
@@ -8414,7 +8383,7 @@
       <c r="A43" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="D22:D25"/>
@@ -8425,6 +8394,7 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8452,17 +8422,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="66" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8503,10 +8473,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="99"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -8525,10 +8495,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="99"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -8547,10 +8517,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="97"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -8598,10 +8568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8620,10 +8590,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8642,10 +8612,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8680,7 +8650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8692,10 +8662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8714,10 +8684,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8736,10 +8706,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="99"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8758,10 +8728,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="97"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8810,10 +8780,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8832,10 +8802,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8857,10 +8827,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8904,10 +8874,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8949,10 +8919,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8974,10 +8944,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8996,10 +8966,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -9018,10 +8988,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="97"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F470D-ECEC-4B97-8361-A2F1E92CEBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795E6273-171B-4786-99CD-A7135BBB422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1059,6 +1059,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,15 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2123,13 +2123,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15862068965517243</c:v>
+                  <c:v>0.21379310344827587</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.0606060606060608E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.3011152416356878E-2</c:v>
@@ -7532,7 +7532,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10670029706964353</v>
+        <v>0.10713259122819212</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>178.06885755527614</v>
+        <v>177.35032619093525</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44937.068857555278</v>
+        <v>44936.350326190935</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7827,14 +7827,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.15862068965517243</v>
+        <v>0.21379310344827587</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>5.0260901694352919E-2</v>
+        <v>7.9205520294143933E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B13" s="29">
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
-        <v>0</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="68"/>
@@ -7950,7 +7950,7 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="96" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="76">
@@ -7980,7 +7980,7 @@
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="77"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
@@ -8005,7 +8005,7 @@
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="78"/>
       <c r="E18" s="19"/>
       <c r="F18" s="22"/>
@@ -8422,10 +8422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="100"/>
       <c r="D1" s="66" t="s">
         <v>52</v>
       </c>
@@ -8473,10 +8473,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -8495,10 +8495,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -8517,10 +8517,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -8568,10 +8568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8590,10 +8590,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8612,10 +8612,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8651,7 +8651,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8662,10 +8662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8677,17 +8677,17 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8706,10 +8706,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8721,17 +8721,17 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="8">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8780,10 +8780,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8802,10 +8802,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8827,10 +8827,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8874,10 +8874,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8919,10 +8919,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8944,10 +8944,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="100"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8966,10 +8966,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -8988,10 +8988,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795E6273-171B-4786-99CD-A7135BBB422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7FD30-A5D5-4728-9450-7BDBE215AF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -2129,7 +2129,7 @@
                   <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.3011152416356878E-2</c:v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.10713259122819212</v>
+        <v>0.11001859411419501</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>177.35032619093525</v>
+        <v>172.69808029248892</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44936.350326190935</v>
+        <v>44931.698080292488</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>7.9205520294143933E-2</v>
+        <v>9.4357035445659071E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B13" s="29">
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
-        <v>6.0606060606060608E-2</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="68"/>
@@ -8651,7 +8651,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8">
         <v>33</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7FD30-A5D5-4728-9450-7BDBE215AF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B28E9-F347-4856-8921-B5562063BA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1718,7 +1718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.9215686274509803E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7532,7 +7532,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.11001859411419501</v>
+        <v>0.11188600774631452</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>172.69808029248892</v>
+        <v>169.81569351441848</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44931.698080292488</v>
+        <v>44928.815693514422</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D7" s="90">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
-        <v>4.0160642570281129E-3</v>
+        <v>1.7087959681864714E-2</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B9" s="30">
         <f>АиСД!A9*100%/АиСД!B9</f>
-        <v>0</v>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="92"/>
@@ -8557,7 +8557,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8627,7 +8627,8 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
-        <v>0</v>
+        <f>28-18</f>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>255</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B28E9-F347-4856-8921-B5562063BA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76540575-A114-4601-8601-E28DDB34CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1718,7 +1718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9215686274509803E-2</c:v>
+                  <c:v>0.14117647058823529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7532,7 +7532,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.11188600774631452</v>
+        <v>0.11674128318982524</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>169.81569351441848</v>
+        <v>162.7530508561</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44928.815693514422</v>
+        <v>44921.753050856103</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D7" s="90">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
-        <v>1.7087959681864714E-2</v>
+        <v>5.1074887786439878E-2</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B9" s="30">
         <f>АиСД!A9*100%/АиСД!B9</f>
-        <v>3.9215686274509803E-2</v>
+        <v>0.14117647058823529</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="92"/>
@@ -8557,7 +8557,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8627,8 +8627,7 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
-        <f>28-18</f>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6">
         <v>255</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76540575-A114-4601-8601-E28DDB34CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070296B-092F-446E-87B3-0F4C23FDFBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1718,7 +1718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14117647058823529</c:v>
+                  <c:v>8.2352941176470587E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7532,7 +7532,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.11674128318982524</v>
+        <v>0.11394016274164598</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>162.7530508561</v>
+        <v>166.75419398058625</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44921.753050856103</v>
+        <v>44925.754193980589</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D7" s="90">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
-        <v>5.1074887786439878E-2</v>
+        <v>3.1467044649184976E-2</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B9" s="30">
         <f>АиСД!A9*100%/АиСД!B9</f>
-        <v>0.14117647058823529</v>
+        <v>8.2352941176470587E-2</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="92"/>
@@ -8557,7 +8557,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8627,7 +8627,8 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
-        <v>36</v>
+        <f>39-18</f>
+        <v>21</v>
       </c>
       <c r="B9" s="6">
         <v>255</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070296B-092F-446E-87B3-0F4C23FDFBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B8715-260E-4E4C-B98C-5D961E6173AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" activeTab="2" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1718,7 +1718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2352941176470587E-2</c:v>
+                  <c:v>0.13725490196078433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7531,7 +7531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.11394016274164598</v>
+        <v>0.106419364276473</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>166.75419398058625</v>
+        <v>178.5389353636694</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44925.754193980589</v>
+        <v>44937.538935363671</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D7" s="90">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
-        <v>3.1467044649184976E-2</v>
+        <v>4.9767698243956222E-2</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B9" s="30">
         <f>АиСД!A9*100%/АиСД!B9</f>
-        <v>8.2352941176470587E-2</v>
+        <v>0.13725490196078433</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="92"/>
@@ -8556,8 +8556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEB77C-D1D9-44FA-A033-AAFB087AD5F9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8627,8 +8627,8 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
-        <f>39-18</f>
-        <v>21</v>
+        <f>53-18</f>
+        <v>35</v>
       </c>
       <c r="B9" s="6">
         <v>255</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B8715-260E-4E4C-B98C-5D961E6173AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029E73C-15B9-48D8-A971-5F13FAAC0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" activeTab="2" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2910052910052907E-2</c:v>
+                  <c:v>8.4656084656084651E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7531,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D2" s="84">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.21237139260395074</v>
+        <v>0.22030790054045868</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>30</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.106419364276473</v>
+        <v>0.1077996265263005</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>178.5389353636694</v>
+        <v>176.25292973871723</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="B5" s="30">
         <f>Java!A12*100%/Java!B12</f>
-        <v>5.2910052910052907E-2</v>
+        <v>8.4656084656084651E-2</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="86"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44937.538935363671</v>
+        <v>44935.252929738715</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -8407,7 +8407,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8465,7 +8465,8 @@
         <v>53</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <f>329-323</f>
+        <v>6</v>
       </c>
       <c r="F3" s="2">
         <f>361-323</f>
@@ -8533,7 +8534,7 @@
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="17">
         <f>SUM(E2:E100)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" s="18">
         <f>SUM(F2:F100)</f>
@@ -8556,7 +8557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEB77C-D1D9-44FA-A033-AAFB087AD5F9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029E73C-15B9-48D8-A971-5F13FAAC0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E225A14-45B8-4CB5-B4BD-B9FC3D434812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1337,7 +1337,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4656084656084651E-2</c:v>
+                  <c:v>0.10582010582010581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7597,14 +7597,14 @@
       </c>
       <c r="D2" s="84">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.22030790054045868</v>
+        <v>0.22559890583146397</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>0.1077996265263005</v>
+        <v>8.6226049354101109E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>176.25292973871723</v>
+        <v>220.35104405599577</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="B5" s="30">
         <f>Java!A12*100%/Java!B12</f>
-        <v>8.4656084656084651E-2</v>
+        <v>0.10582010582010581</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="86"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44935.252929738715</v>
+        <v>44979.351044055998</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -8407,7 +8407,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8465,8 +8465,8 @@
         <v>53</v>
       </c>
       <c r="E3" s="2">
-        <f>329-323</f>
-        <v>6</v>
+        <f>333-323</f>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <f>361-323</f>
@@ -8534,7 +8534,7 @@
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="17">
         <f>SUM(E2:E100)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="18">
         <f>SUM(F2:F100)</f>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E225A14-45B8-4CB5-B4BD-B9FC3D434812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B0F06-7F5A-4CE8-BA2C-4072803985F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -7531,7 +7531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
@@ -8406,8 +8406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B0F06-7F5A-4CE8-BA2C-4072803985F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A57CA6-083E-4C2F-A4EC-4E8E7988C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1337,7 +1337,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10582010582010581</c:v>
+                  <c:v>0.15873015873015872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D2" s="84">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.22559890583146397</v>
+        <v>0.2388264190589772</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>30</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.6226049354101109E-2</v>
+        <v>8.8050533937206382E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>220.35104405599577</v>
+        <v>215.78517642550506</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="B5" s="30">
         <f>Java!A12*100%/Java!B12</f>
-        <v>0.10582010582010581</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="86"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44979.351044055998</v>
+        <v>44974.785176425503</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -8407,7 +8407,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8465,8 +8465,8 @@
         <v>53</v>
       </c>
       <c r="E3" s="2">
-        <f>333-323</f>
-        <v>10</v>
+        <f>343-323</f>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <f>361-323</f>
@@ -8534,7 +8534,7 @@
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="17">
         <f>SUM(E2:E100)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B12" s="18">
         <f>SUM(F2:F100)</f>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A57CA6-083E-4C2F-A4EC-4E8E7988C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41897E8A-5F5A-4DF5-94DF-0809C11D3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2790" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="4575" yWindow="2985" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.21379310344827587</c:v>
+                  <c:v>0.22758620689655173</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.8050533937206382E-2</v>
+        <v>8.28147931492665E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>215.78517642550506</v>
+        <v>229.42760921655801</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44974.785176425503</v>
+        <v>44988.42760921656</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7827,14 +7827,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.21379310344827587</v>
+        <v>0.22758620689655173</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>9.4357035445659071E-2</v>
+        <v>9.7805311307728043E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8406,7 +8406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -8652,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41897E8A-5F5A-4DF5-94DF-0809C11D3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D0A29-1A0C-40B9-BAAA-88564378B983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2985" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.22758620689655173</c:v>
+                  <c:v>0.23448275862068965</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7531,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7570,8 +7570,8 @@
         <v>29</v>
       </c>
       <c r="H1" s="54">
-        <f>DATE(2022,8,17)</f>
-        <v>44790</v>
+        <f>DATE(2022,8,20)</f>
+        <v>44793</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.28147931492665E-2</v>
+        <v>8.3037262559722547E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>229.42760921655801</v>
+        <v>228.8129378823719</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44988.42760921656</v>
+        <v>44987.812937882372</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7827,14 +7827,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.22758620689655173</v>
+        <v>0.23448275862068965</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>9.7805311307728043E-2</v>
+        <v>9.9529449238762516E-2</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8652,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D0A29-1A0C-40B9-BAAA-88564378B983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40841C4-58C3-498A-9CCA-49A9669970A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -2123,7 +2123,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.23448275862068965</c:v>
+                  <c:v>0.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.3037262559722547E-2</v>
+        <v>8.3259731970178608E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>228.8129378823719</v>
+        <v>228.20155134303445</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44987.812937882372</v>
+        <v>44987.201551343038</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7827,14 +7827,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.23448275862068965</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>9.9529449238762516E-2</v>
+        <v>0.101253587169797</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8653,7 +8653,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40841C4-58C3-498A-9CCA-49A9669970A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22716EFC-C3E2-4F18-980F-33FB1AC884F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -7532,7 +7532,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7570,8 +7570,8 @@
         <v>29</v>
       </c>
       <c r="H1" s="54">
-        <f>DATE(2022,8,20)</f>
-        <v>44793</v>
+        <f>DATE(2022,9,15)</f>
+        <v>44819</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22716EFC-C3E2-4F18-980F-33FB1AC884F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F27C8-B940-4552-A306-7AB149075373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2413793103448276</c:v>
+                  <c:v>0.28275862068965518</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7531,7 +7531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.3259731970178608E-2</v>
+        <v>8.4594548432914973E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>228.20155134303445</v>
+        <v>224.60076153804815</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44987.201551343038</v>
+        <v>44983.600761538051</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7827,14 +7827,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.2413793103448276</v>
+        <v>0.28275862068965518</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>0.101253587169797</v>
+        <v>0.11159841475600391</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8652,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F27C8-B940-4552-A306-7AB149075373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9BF5A5-CD0F-4B73-9843-0338099A5373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" activeTab="2" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1718,7 +1718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13725490196078433</c:v>
+                  <c:v>0.15686274509803921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.4594548432914973E-2</v>
+        <v>8.2563713892425589E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>224.60076153804815</v>
+        <v>230.12530692061156</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44983.600761538051</v>
+        <v>44989.125306920614</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D7" s="90">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
-        <v>4.9767698243956222E-2</v>
+        <v>5.6303645956374521E-2</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B9" s="30">
         <f>АиСД!A9*100%/АиСД!B9</f>
-        <v>0.13725490196078433</v>
+        <v>0.15686274509803921</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="92"/>
@@ -8557,8 +8557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEB77C-D1D9-44FA-A033-AAFB087AD5F9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8628,8 +8628,8 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
-        <f>53-18</f>
-        <v>35</v>
+        <f>58-18</f>
+        <v>40</v>
       </c>
       <c r="B9" s="6">
         <v>255</v>
@@ -8652,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9BF5A5-CD0F-4B73-9843-0338099A5373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3CEB81-DBFD-4389-906E-46A5B4D1026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" activeTab="2" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1718,7 +1718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15686274509803921</c:v>
+                  <c:v>0.2196078431372549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7531,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.2563713892425589E-2</v>
+        <v>8.1963149775661673E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>230.12530692061156</v>
+        <v>231.81149153008641</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44989.125306920614</v>
+        <v>44990.811491530083</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D7" s="90">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
-        <v>5.6303645956374521E-2</v>
+        <v>7.7218678636113078E-2</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B9" s="30">
         <f>АиСД!A9*100%/АиСД!B9</f>
-        <v>0.15686274509803921</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="92"/>
@@ -8557,8 +8557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEB77C-D1D9-44FA-A033-AAFB087AD5F9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8628,8 +8628,8 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="5">
-        <f>58-18</f>
-        <v>40</v>
+        <f>74-18</f>
+        <v>56</v>
       </c>
       <c r="B9" s="6">
         <v>255</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3CEB81-DBFD-4389-906E-46A5B4D1026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A710660F-DA09-4C5B-9EB4-B625CA297483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1328,7 +1328,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.69767441860465118</c:v>
+                  <c:v>0.72093023255813948</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7532,7 +7532,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7590,14 +7590,14 @@
       </c>
       <c r="B2" s="41">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.69767441860465118</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="84">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.2388264190589772</v>
+        <v>0.24464037254734927</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>30</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.1963149775661673E-2</v>
+        <v>8.2667871410615865E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>231.81149153008641</v>
+        <v>229.83536016823217</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44990.811491530083</v>
+        <v>44988.835360168232</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -8407,7 +8407,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A710660F-DA09-4C5B-9EB4-B625CA297483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA5183-41F3-4A23-AA3D-0C5178FEF340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1590" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1485" yWindow="1500" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.72093023255813948</c:v>
+                  <c:v>0.76744186046511631</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7531,7 +7531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -7590,14 +7590,14 @@
       </c>
       <c r="B2" s="41">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.72093023255813948</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="84">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.24464037254734927</v>
+        <v>0.25626827952409348</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>30</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.2667871410615865E-2</v>
+        <v>8.4077314680524234E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>229.83536016823217</v>
+        <v>225.98247900989614</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44988.835360168232</v>
+        <v>44984.982479009894</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -8406,8 +8406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA5183-41F3-4A23-AA3D-0C5178FEF340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195513D-F084-4168-B079-795421FA0EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1500" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1485" yWindow="1500" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.28275862068965518</c:v>
+                  <c:v>0.28965517241379313</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="F1" s="52">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>29</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="F2" s="48">
         <f ca="1">$H$1-TODAY()</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>8.4077314680524234E-2</v>
+        <v>7.7262442671706621E-2</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F4" s="50">
         <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>225.98247900989614</v>
+        <v>245.91508296899559</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>44984.982479009894</v>
+        <v>45004.915082968997</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
@@ -7827,14 +7827,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.28275862068965518</v>
+        <v>0.28965517241379313</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="67">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>0.11159841475600391</v>
+        <v>0.11332255268703839</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8406,7 +8406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -8652,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195513D-F084-4168-B079-795421FA0EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8710E83B-382E-4E80-98F7-3F774EB8188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1500" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="1485" yWindow="1500" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Лекций просмотрено</t>
   </si>
@@ -204,6 +204,12 @@
   <si>
     <t>Коллекции объектов</t>
   </si>
+  <si>
+    <t>Дней перерыва на болезнь</t>
+  </si>
+  <si>
+    <t>Дней с начала обучения прошло (полезные дни)</t>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -651,19 +657,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -713,19 +706,6 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -830,11 +810,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -928,19 +921,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -950,13 +936,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -965,7 +951,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -975,37 +960,37 @@
     <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,55 +1002,52 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1067,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6885,15 +6888,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>20646</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>18498</xdr:rowOff>
+      <xdr:colOff>27974</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>787372</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104983</xdr:rowOff>
+      <xdr:colOff>212481</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>227135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6918,144 +6921,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1024721</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>174368</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5862585" cy="1233972"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FA5AE8-1920-94B1-39DA-B0472D67ECA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11326375" y="174368"/>
-          <a:ext cx="5862585" cy="1233972"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1400" b="1">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>!ПРИМЕЧАНИЕ!</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Выполнение абсолютно всех пунктов не обязательно.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Поэтому анализ является сильно примерным, но он явно отражет весь прогресс обучения.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Так же нужно учитывать, что я самостоятельно,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>по мере изучения, добавляю вопросы, которые могут</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>быть на собеседованиях, поэтому процент выполнения </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>может долго оставаться без изменений.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -7114,15 +6979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>823573</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134265</xdr:rowOff>
+      <xdr:colOff>230092</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>261973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>205511</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22922</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471883</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>196106</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7150,15 +7015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>24519</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>132274</xdr:rowOff>
+      <xdr:colOff>31847</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>259982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>791245</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20931</xdr:rowOff>
+      <xdr:colOff>216354</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7186,15 +7051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>821165</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>14100</xdr:rowOff>
+      <xdr:colOff>227684</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>203103</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100585</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>222737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7222,15 +7087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826505</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>48747</xdr:rowOff>
+      <xdr:colOff>233024</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>208443</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>135232</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474815</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>126266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7258,15 +7123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>20646</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47281</xdr:rowOff>
+      <xdr:colOff>27974</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>787372</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133766</xdr:rowOff>
+      <xdr:colOff>212481</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7531,8 +7396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -7541,7 +7406,7 @@
     <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="13" customWidth="1"/>
-    <col min="5" max="5" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="12" customWidth="1"/>
     <col min="7" max="8" width="13.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
@@ -7552,24 +7417,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1">
       <c r="A1" s="40"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="80"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="52">
+      <c r="F1" s="101">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
         <v>36</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="54">
+      <c r="H1" s="51">
         <f>DATE(2022,9,15)</f>
         <v>44819</v>
       </c>
@@ -7592,19 +7457,18 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.76744186046511631</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="80">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
         <v>0.25626827952409348</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>30</v>
+      <c r="E2" s="103" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="48">
-        <f ca="1">$H$1-TODAY()</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="22"/>
@@ -7627,14 +7491,14 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.8901098901098897E-2</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="47" t="s">
-        <v>26</v>
+      <c r="C3" s="78"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="103" t="s">
+        <v>55</v>
       </c>
       <c r="F3" s="49">
-        <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>7.7262442671706621E-2</v>
+        <f ca="1">F1-F2</f>
+        <v>29</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7648,7 +7512,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="39" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
@@ -7657,14 +7521,14 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="50">
-        <f ca="1">COUNTA(B2:B100)/$F$3</f>
-        <v>245.91508296899559</v>
+      <c r="C4" s="78"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="108">
+        <f ca="1">$H$1-TODAY()</f>
+        <v>24</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7687,15 +7551,8 @@
         <f>Java!A12*100%/Java!B12</f>
         <v>0.15873015873015872</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="51">
-        <f ca="1">DATE(2022,7,17) + $F$4</f>
-        <v>45004.915082968997</v>
-      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="82"/>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
       <c r="I5" s="19"/>
@@ -7709,8 +7566,13 @@
       <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E6" s="19"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="106">
+        <f ca="1">SUM($B$2:$B$100)/$F$1</f>
+        <v>7.7262442671706621E-2</v>
+      </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -7732,15 +7594,20 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="102">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
         <v>7.7218678636113078E-2</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="49">
+        <f ca="1">COUNTA(B2:B100)/$F$6</f>
+        <v>245.91508296899559</v>
+      </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -7753,7 +7620,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
@@ -7762,10 +7629,15 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="50">
+        <f ca="1">DATE(2022,7,17) + $F$7</f>
+        <v>45004.915082968997</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -7787,10 +7659,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0.2196078431372549</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="87"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -7829,10 +7699,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>0.28965517241379313</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="63">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
         <v>0.11332255268703839</v>
       </c>
@@ -7859,8 +7729,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7884,8 +7754,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0.12121212121212122</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="68"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7909,8 +7779,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>1.3011152416356878E-2</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="69"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
       <c r="G14" s="19"/>
@@ -7942,18 +7812,18 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="21" customHeight="1">
-      <c r="A16" s="60" t="str">
+      <c r="A16" s="57" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="54">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="72">
         <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
         <v>2.3809523809523808E-2</v>
       </c>
@@ -7972,16 +7842,16 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A17" s="61" t="str">
+      <c r="A17" s="58" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="55">
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -7997,16 +7867,16 @@
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A18" s="62" t="str">
+      <c r="A18" s="59" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="56">
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="78"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="19"/>
       <c r="F18" s="22"/>
       <c r="G18" s="19"/>
@@ -8086,14 +7956,14 @@
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="52">
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="69">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
         <v>0</v>
       </c>
@@ -8116,12 +7986,12 @@
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="60">
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8141,12 +8011,12 @@
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="60">
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="19"/>
@@ -8166,12 +8036,12 @@
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="53">
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="19"/>
       <c r="F25" s="22"/>
       <c r="G25" s="19"/>
@@ -8422,17 +8292,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="62" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8474,10 +8344,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -8496,10 +8366,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -8518,10 +8388,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="95"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -8569,10 +8439,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8591,10 +8461,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8613,10 +8483,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="95"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8652,7 +8522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -8664,10 +8534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8686,10 +8556,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8708,10 +8578,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="97"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8730,10 +8600,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="95"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8782,10 +8652,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8804,10 +8674,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8829,10 +8699,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="95"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8876,10 +8746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8921,10 +8791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="99"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8946,10 +8816,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8968,10 +8838,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="95"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -8990,10 +8860,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="95"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8710E83B-382E-4E80-98F7-3F774EB8188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D6FFA-9F9B-4018-8F48-60F6ED61E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1500" windowWidth="35670" windowHeight="18330" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -957,6 +957,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,6 +1044,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,27 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,7 +2126,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.28965517241379313</c:v>
+                  <c:v>0.30344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7396,7 +7396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -7420,18 +7420,18 @@
       <c r="B1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="76"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="101">
+      <c r="F1" s="64">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>36</v>
-      </c>
-      <c r="G1" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="63" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="51">
@@ -7457,14 +7457,14 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.76744186046511631</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="88">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
         <v>0.25626827952409348</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="48">
@@ -7491,14 +7491,14 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.8901098901098897E-2</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="103" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="65" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="49">
         <f ca="1">F1-F2</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7521,14 +7521,14 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="107" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="70">
         <f ca="1">$H$1-TODAY()</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7551,8 +7551,8 @@
         <f>Java!A12*100%/Java!B12</f>
         <v>0.15873015873015872</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="90"/>
       <c r="G5" s="19"/>
       <c r="H5" s="22"/>
       <c r="I5" s="19"/>
@@ -7566,12 +7566,12 @@
       <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="68">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>7.7262442671706621E-2</v>
+        <v>7.5547055125127396E-2</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -7594,10 +7594,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="94">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
         <v>7.7218678636113078E-2</v>
       </c>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="F7" s="49">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>245.91508296899559</v>
+        <v>251.49888329241423</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -7629,14 +7629,14 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="66" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="50">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45004.915082968997</v>
+        <v>45010.498883292414</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -7659,8 +7659,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0.2196078431372549</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="96"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -7697,14 +7697,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.28965517241379313</v>
-      </c>
-      <c r="C11" s="88" t="s">
+        <v>0.30344827586206896</v>
+      </c>
+      <c r="C11" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="71">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>0.11332255268703839</v>
+        <v>0.11677082854910735</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -7729,8 +7729,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -7754,8 +7754,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0.12121212121212122</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="19"/>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -7779,8 +7779,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>1.3011152416356878E-2</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
       <c r="G14" s="19"/>
@@ -7820,10 +7820,10 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="80">
         <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
         <v>2.3809523809523808E-2</v>
       </c>
@@ -7850,8 +7850,8 @@
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="73"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="19"/>
       <c r="F17" s="22"/>
       <c r="G17" s="19"/>
@@ -7875,8 +7875,8 @@
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="19"/>
       <c r="F18" s="22"/>
       <c r="G18" s="19"/>
@@ -7960,10 +7960,10 @@
         <f>Spring!A3*100%/Spring!B3</f>
         <v>0</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="77">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
         <v>0</v>
       </c>
@@ -7990,8 +7990,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="70"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="19"/>
       <c r="F23" s="22"/>
       <c r="G23" s="19"/>
@@ -8015,8 +8015,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="19"/>
@@ -8040,8 +8040,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="71"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="19"/>
       <c r="F25" s="22"/>
       <c r="G25" s="19"/>
@@ -8292,10 +8292,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="104"/>
       <c r="D1" s="62" t="s">
         <v>52</v>
       </c>
@@ -8344,10 +8344,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="106"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -8366,10 +8366,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="106"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -8388,10 +8388,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="104"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -8439,10 +8439,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8461,10 +8461,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="104"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8483,10 +8483,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="104"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8522,8 +8522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8534,10 +8534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8549,17 +8549,17 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="104"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8578,10 +8578,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="106"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8600,10 +8600,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="104"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
@@ -8652,10 +8652,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -8674,10 +8674,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="104"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -8699,10 +8699,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="104"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -8746,10 +8746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -8791,10 +8791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="108"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
@@ -8816,10 +8816,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="104"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -8838,10 +8838,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="104"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -8860,10 +8860,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="104"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D6FFA-9F9B-4018-8F48-60F6ED61E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4DCE6D-79EE-4997-B13F-0C2A905F8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -2126,7 +2126,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.30344827586206896</c:v>
+                  <c:v>0.31724137931034485</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9411764705882353E-2</c:v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="F1" s="64">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>29</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">F1-F2</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="F4" s="70">
         <f ca="1">$H$1-TODAY()</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="F6" s="68">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>7.5547055125127396E-2</v>
+        <v>7.3921951133631314E-2</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="F7" s="49">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>251.49888329241423</v>
+        <v>257.02784773163023</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="F8" s="50">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45010.498883292414</v>
+        <v>45016.027847731631</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -7697,14 +7697,14 @@
       </c>
       <c r="B11" s="28">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
-        <v>0.30344827586206896</v>
+        <v>0.31724137931034485</v>
       </c>
       <c r="C11" s="97" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="71">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
-        <v>0.11677082854910735</v>
+        <v>0.12021910441117632</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="22"/>
@@ -8523,7 +8523,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8">
         <v>145</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4DCE6D-79EE-4997-B13F-0C2A905F8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6F7460-42D9-4135-84E1-D1ACE82BFCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="3" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="6" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -3280,7 +3280,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0526315789473684E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="F1" s="64">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>29</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">F1-F2</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="F4" s="70">
         <f ca="1">$H$1-TODAY()</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="F6" s="68">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>7.3921951133631314E-2</v>
+        <v>6.5571173462034033E-2</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="F7" s="49">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>257.02784773163023</v>
+        <v>289.76147591747883</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="F8" s="50">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45016.027847731631</v>
+        <v>45048.761475917476</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -7958,14 +7958,14 @@
       </c>
       <c r="B22" s="52">
         <f>Spring!A3*100%/Spring!B3</f>
-        <v>0</v>
+        <v>1.0526315789473684E-2</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="77">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
-        <v>0</v>
+        <v>2.631578947368421E-3</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
@@ -8522,7 +8522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -8779,8 +8779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1">
       <c r="A3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>95</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6F7460-42D9-4135-84E1-D1ACE82BFCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2BF19-0B52-4DDB-81B5-D8EEFBBF9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="6" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.76744186046511631</c:v>
+                  <c:v>0.79069767441860461</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="F1" s="64">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>29</v>
@@ -7455,14 +7455,14 @@
       </c>
       <c r="B2" s="41">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.76744186046511631</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="88">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.25626827952409348</v>
+        <v>0.26208223301246558</v>
       </c>
       <c r="E2" s="65" t="s">
         <v>54</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="F3" s="49">
         <f ca="1">F1-F2</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="22"/>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="F4" s="70">
         <f ca="1">$H$1-TODAY()</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="22"/>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="F6" s="68">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>6.5571173462034033E-2</v>
+        <v>6.4609460745930727E-2</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="F7" s="49">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>289.76147591747883</v>
+        <v>294.07457949100234</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="F8" s="50">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45048.761475917476</v>
+        <v>45053.074579491004</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -8276,8 +8276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>
@@ -8779,7 +8779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2BF19-0B52-4DDB-81B5-D8EEFBBF9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD7935F-B462-4528-8BC2-B0F7424F30FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.79069767441860461</c:v>
+                  <c:v>0.86046511627906974</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7455,14 +7455,14 @@
       </c>
       <c r="B2" s="41">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.79069767441860461</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="88">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.26208223301246558</v>
+        <v>0.27952409347758184</v>
       </c>
       <c r="E2" s="65" t="s">
         <v>54</v>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="F6" s="68">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>6.4609460745930727E-2</v>
+        <v>6.6195084424577666E-2</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="F7" s="49">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>294.07457949100234</v>
+        <v>287.03037642694602</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="F8" s="50">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45053.074579491004</v>
+        <v>45046.030376426948</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -8277,7 +8277,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="5">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD7935F-B462-4528-8BC2-B0F7424F30FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00B81D-09F3-4E5C-A100-328C311D0B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="150" windowWidth="35670" windowHeight="18330" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="22605" yWindow="2865" windowWidth="14310" windowHeight="17250" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -218,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -861,7 +860,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -869,13 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -896,7 +888,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,9 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,16 +940,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,9 +956,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,7 +1314,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.86046511627906974</c:v>
+                  <c:v>0.88372093023255816</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7394,863 +7377,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="13" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="12" customWidth="1"/>
-    <col min="7" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.25" style="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.25" style="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A1" s="40"/>
-      <c r="B1" s="61" t="s">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35"/>
+      <c r="B1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="64">
+      <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>44</v>
-      </c>
-      <c r="G1" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="51">
+      <c r="H1" s="45">
         <f>DATE(2022,9,15)</f>
         <v>44819</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="38" t="str">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="36">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.86046511627906974</v>
-      </c>
-      <c r="C2" s="85" t="s">
+        <v>0.88372093023255816</v>
+      </c>
+      <c r="C2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="80">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.27952409347758184</v>
-      </c>
-      <c r="E2" s="65" t="s">
+        <v>0.28533804696595394</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="4">
         <v>7</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="19"/>
+      <c r="H2" s="12"/>
+      <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="39" t="str">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="37">
         <f>Java!A6*100%/Java!B6</f>
         <v>9.8901098901098897E-2</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="65" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>37</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="39" t="str">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="37">
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="69" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>16</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A5" s="39" t="str">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="str">
         <f>Java!A10</f>
         <v>Философия Java (книга)</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="25">
         <f>Java!A12*100%/Java!B12</f>
         <v>0.15873015873015872</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="90"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="19"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="82"/>
+      <c r="H5" s="12"/>
+      <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E6" s="67" t="s">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>6.6195084424577666E-2</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="19"/>
+        <v>5.7565480953625604E-2</v>
+      </c>
+      <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="35" t="str">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="23">
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="86">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
         <v>7.7218678636113078E-2</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>287.03037642694602</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="19"/>
+        <v>330.05891178614979</v>
+      </c>
+      <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="36" t="str">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="24">
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="66" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45046.030376426948</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+        <v>45089.058911786153</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="37" t="str">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="25">
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0.2196078431372549</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="96"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="88"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="24"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A11" s="32" t="str">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="23">
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>0.31724137931034485</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="63">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
         <v>0.12021910441117632</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A12" s="33" t="str">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="24">
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A13" s="33" t="str">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="24">
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0.12121212121212122</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="64"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A14" s="34" t="str">
+    <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="25">
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>1.3011152416356878E-2</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="65"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="24"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1">
-      <c r="A16" s="57" t="str">
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="48">
         <f>Сети!A3*100%/Сети!B3</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="72">
         <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A17" s="58" t="str">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="49">
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="73"/>
     </row>
-    <row r="18" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A18" s="59" t="str">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="50">
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="74"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" thickBot="1">
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="31" t="str">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="38">
         <f>Git!A3*100%/Git!B3</f>
         <v>1</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="40">
         <f>SUM(B20)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E21" s="19"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A22" s="25" t="str">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="46">
         <f>Spring!A3*100%/Spring!B3</f>
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="69">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A23" s="26" t="str">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="54">
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="70"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A24" s="26" t="str">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="54">
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="70"/>
     </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A25" s="27" t="str">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="47">
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="19"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="19"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="19"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="19"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8277,36 +7766,36 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.25" style="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8324,9 +7813,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>
@@ -8343,13 +7832,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="105" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="98"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8357,21 +7846,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>18</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="106"/>
+      <c r="B7" s="98"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8379,7 +7868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8387,13 +7876,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="103" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="96"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -8401,12 +7890,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A12" s="17">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <f>SUM(E2:E100)</f>
         <v>30</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>SUM(F2:F100)</f>
         <v>189</v>
       </c>
@@ -8431,20 +7920,20 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.25" style="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8452,7 +7941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8460,13 +7949,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8474,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8482,13 +7971,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="96"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8496,7 +7985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>74-18</f>
         <v>56</v>
@@ -8526,20 +8015,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.25" style="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8547,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>46</v>
       </c>
@@ -8555,13 +8044,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8569,7 +8058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8577,13 +8066,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="106"/>
+      <c r="B7" s="98"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8591,7 +8080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -8599,13 +8088,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="103" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="96"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8613,7 +8102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>55-41</f>
         <v>14</v>
@@ -8644,20 +8133,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.25" style="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8665,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -8673,13 +8162,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8687,7 +8176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8698,13 +8187,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="96"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8712,7 +8201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8739,19 +8228,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8759,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>19</v>
       </c>
@@ -8783,20 +8272,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.25" style="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8804,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8815,13 +8304,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8829,7 +8318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8837,13 +8326,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="96"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8851,7 +8340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8859,25 +8348,25 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="103" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="96"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A12" s="17">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>0</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>33</v>
       </c>
     </row>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00B81D-09F3-4E5C-A100-328C311D0B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025C94E-E6D7-431A-A70B-572B02609DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22605" yWindow="2865" windowWidth="14310" windowHeight="17250" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
@@ -1314,7 +1314,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.88372093023255816</c:v>
+                  <c:v>0.90697674418604646</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7429,14 +7429,14 @@
       </c>
       <c r="B2" s="36">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.88372093023255816</v>
+        <v>0.90697674418604646</v>
       </c>
       <c r="C2" s="77" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="80">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.28533804696595394</v>
+        <v>0.29115200045432599</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>54</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.7565480953625604E-2</v>
+        <v>5.5831987596007417E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>330.05891178614979</v>
+        <v>340.30670979298441</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45089.058911786153</v>
+        <v>45099.306709792982</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7766,7 +7766,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilaevvalentin/Documents/Java_Backend_Cource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025C94E-E6D7-431A-A70B-572B02609DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393C9DE-C7DE-0144-8FF5-9D7656414C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22605" yWindow="2865" windowWidth="14310" windowHeight="17250" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="19280" yWindow="2860" windowWidth="14320" windowHeight="17260" firstSheet="1" activeTab="6" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1105,7 +1105,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1178,7 +1178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1261,7 +1261,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1386,7 +1386,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1442,7 +1442,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1487,7 +1487,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1501,7 +1501,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1561,7 +1561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1648,7 +1648,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1770,7 +1770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1826,7 +1826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1871,7 +1871,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1885,7 +1885,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1959,7 +1959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2056,7 +2056,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2181,7 +2181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2240,7 +2240,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2285,7 +2285,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2299,7 +2299,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2359,7 +2359,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2443,7 +2443,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2556,7 +2556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2612,7 +2612,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2657,7 +2657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2671,7 +2671,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2731,7 +2731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2835,7 +2835,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2942,7 +2942,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2998,7 +2998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3043,7 +3043,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3057,7 +3057,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3123,7 +3123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3210,7 +3210,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3263,7 +3263,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0526315789473684E-2</c:v>
+                  <c:v>3.1578947368421054E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3337,7 +3337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3396,7 +3396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3441,7 +3441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7383,22 +7383,22 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="52.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.28515625" style="1"/>
+    <col min="5" max="5" width="45.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="12" customWidth="1"/>
+    <col min="7" max="8" width="13.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.19921875" style="1"/>
+    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="55" t="s">
         <v>24</v>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7422,7 +7422,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
@@ -7447,7 +7447,7 @@
       <c r="H2" s="12"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
@@ -7463,12 +7463,12 @@
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
@@ -7484,12 +7484,12 @@
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="str">
         <f>Java!A10</f>
         <v>Философия Java (книга)</v>
@@ -7503,17 +7503,17 @@
       <c r="H5" s="12"/>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="60" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.5831987596007417E-2</v>
+        <v>5.1381861623574838E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
@@ -7534,11 +7534,11 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>340.30670979298441</v>
+        <v>369.78029599617486</v>
       </c>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
@@ -7554,10 +7554,10 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45099.306709792982</v>
+        <v>45128.780295996177</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
@@ -7569,10 +7569,10 @@
       <c r="C9" s="85"/>
       <c r="D9" s="88"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
@@ -7589,7 +7589,7 @@
         <v>0.12021910441117632</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
@@ -7601,7 +7601,7 @@
       <c r="C12" s="90"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
@@ -7613,7 +7613,7 @@
       <c r="C13" s="90"/>
       <c r="D13" s="64"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
@@ -7625,10 +7625,10 @@
       <c r="C14" s="91"/>
       <c r="D14" s="65"/>
     </row>
-    <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
@@ -7645,7 +7645,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
@@ -7657,7 +7657,7 @@
       <c r="C17" s="93"/>
       <c r="D17" s="73"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
@@ -7669,8 +7669,8 @@
       <c r="C18" s="94"/>
       <c r="D18" s="74"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
@@ -7687,25 +7687,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
       <c r="B22" s="46">
         <f>Spring!A3*100%/Spring!B3</f>
-        <v>1.0526315789473684E-2</v>
+        <v>3.1578947368421054E-2</v>
       </c>
       <c r="C22" s="66" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="69">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
-        <v>2.631578947368421E-3</v>
+        <v>7.8947368421052634E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
@@ -7717,7 +7717,7 @@
       <c r="C23" s="67"/>
       <c r="D23" s="70"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
@@ -7729,7 +7729,7 @@
       <c r="C24" s="67"/>
       <c r="D24" s="70"/>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
@@ -7765,22 +7765,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
         <v>9</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>39</v>
       </c>
@@ -7832,13 +7832,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="97" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="98"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>18</v>
       </c>
@@ -7854,13 +7854,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="98"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -7876,13 +7876,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="96"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f>SUM(E2:E100)</f>
         <v>30</v>
@@ -7920,20 +7920,20 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="27.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -7949,13 +7949,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -7971,13 +7971,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="96"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>74-18</f>
         <v>56</v>
@@ -8015,20 +8015,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>46</v>
       </c>
@@ -8044,13 +8044,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8066,13 +8066,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="98"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -8088,13 +8088,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="96"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>55-41</f>
         <v>14</v>
@@ -8133,20 +8133,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="23.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -8162,13 +8162,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8187,13 +8187,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="96"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8228,19 +8228,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="96"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>19</v>
       </c>
@@ -8268,24 +8268,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8293,9 +8293,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8">
         <v>95</v>
@@ -8304,13 +8304,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="96"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8326,13 +8326,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="96"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8348,13 +8348,13 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="96"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>0</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilaevvalentin/Documents/Java_Backend_Cource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393C9DE-C7DE-0144-8FF5-9D7656414C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB91601-CA1F-E14B-AEA3-D3DF91487A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19280" yWindow="2860" windowWidth="14320" windowHeight="17260" firstSheet="1" activeTab="6" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
     <sheet name="Java" sheetId="1" r:id="rId2"/>
-    <sheet name="АиСД" sheetId="2" r:id="rId3"/>
-    <sheet name="Базы данных" sheetId="3" r:id="rId4"/>
-    <sheet name="Сети" sheetId="4" r:id="rId5"/>
-    <sheet name="Git" sheetId="7" r:id="rId6"/>
-    <sheet name="Spring" sheetId="5" r:id="rId7"/>
+    <sheet name="ООП и Паттерны" sheetId="8" r:id="rId3"/>
+    <sheet name="АиСД" sheetId="2" r:id="rId4"/>
+    <sheet name="Базы данных" sheetId="3" r:id="rId5"/>
+    <sheet name="Сети" sheetId="4" r:id="rId6"/>
+    <sheet name="Git" sheetId="7" r:id="rId7"/>
+    <sheet name="Spring" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Лекций просмотрено</t>
   </si>
@@ -209,6 +210,15 @@
   <si>
     <t>Дней с начала обучения прошло (полезные дни)</t>
   </si>
+  <si>
+    <t>Курс паттернов проектирования</t>
+  </si>
+  <si>
+    <t>Просмотрено</t>
+  </si>
+  <si>
+    <t>ООП и Паттерны проектирования</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +274,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -826,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1070,6 +1087,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7377,10 +7416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7388,7 +7427,7 @@
     <col min="1" max="1" width="52.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" style="12" customWidth="1"/>
     <col min="7" max="8" width="13.796875" style="1" customWidth="1"/>
@@ -7412,7 +7451,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7463,7 +7502,7 @@
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
@@ -7484,7 +7523,7 @@
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
@@ -7509,7 +7548,7 @@
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.1381861623574838E-2</v>
+        <v>5.1393270833823494E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -7534,7 +7573,7 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>369.78029599617486</v>
+        <v>389.1560057476899</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -7554,7 +7593,7 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45128.780295996177</v>
+        <v>45148.156005747689</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7740,6 +7779,15 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="71"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="11">
+        <f>'ООП и Паттерны'!A3*100%/'ООП и Паттерны'!B3</f>
+        <v>0.10344827586206896</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7913,11 +7961,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31CADF6-A709-D946-8AEA-0CC28E48FB77}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="102"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="107">
+        <v>3</v>
+      </c>
+      <c r="B3" s="108">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEB77C-D1D9-44FA-A033-AAFB087AD5F9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8007,7 +8105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B637B-365E-45A8-ACB1-45E326A5872F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8125,7 +8223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFCCA27-2B5A-43A0-8328-6BD008C1B7A2}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -8220,7 +8318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B851B2C-5898-47F3-9932-C07DFE0DFA15}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8264,11 +8362,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilaevvalentin/Documents/Java_Backend_Cource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB91601-CA1F-E14B-AEA3-D3DF91487A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB071F38-C388-3F45-BE9A-31A7EF304B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -975,6 +975,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,32 +1099,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3302,7 +3302,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.1578947368421054E-2</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7418,7 +7418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -7442,16 +7442,16 @@
       <c r="B1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="76"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="41" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7470,10 +7470,10 @@
         <f>Java!A3*100%/Java!B3</f>
         <v>0.90697674418604646</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="86">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
         <v>0.29115200045432599</v>
       </c>
@@ -7495,14 +7495,14 @@
         <f>Java!A6*100%/Java!B6</f>
         <v>9.8901098901098897E-2</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="58" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
@@ -7516,14 +7516,14 @@
         <f>Java!A9*100%/Java!B9</f>
         <v>0</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="62" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
@@ -7537,8 +7537,8 @@
         <f>Java!A12*100%/Java!B12</f>
         <v>0.15873015873015872</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="88"/>
       <c r="H5" s="12"/>
       <c r="P5" s="18"/>
     </row>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.1393270833823494E-2</v>
+        <v>5.0074981961425111E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -7561,10 +7561,10 @@
         <f>АиСД!A3*100%/АиСД!B3</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="92">
         <f>SUM(B7:B9)/COUNTA(B7:B9)*100%</f>
         <v>7.7218678636113078E-2</v>
       </c>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>389.1560057476899</v>
+        <v>399.40104252871924</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -7586,14 +7586,14 @@
         <f>АиСД!A6*100%/АиСД!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45148.156005747689</v>
+        <v>45158.40104252872</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7605,8 +7605,8 @@
         <f>АиСД!A9*100%/АиСД!B9</f>
         <v>0.2196078431372549</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -7620,10 +7620,10 @@
         <f>'Базы данных'!A3*100%/'Базы данных'!B3</f>
         <v>0.31724137931034485</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="69">
         <f>SUM(B11:B14)/COUNTA(B11:B14)*100%</f>
         <v>0.12021910441117632</v>
       </c>
@@ -7637,8 +7637,8 @@
         <f>'Базы данных'!A6*100%/'Базы данных'!B6</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="str">
@@ -7649,8 +7649,8 @@
         <f>'Базы данных'!A9*100%/'Базы данных'!B9</f>
         <v>0.12121212121212122</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="str">
@@ -7661,8 +7661,8 @@
         <f>'Базы данных'!A12*100%/'Базы данных'!B12</f>
         <v>1.3011152416356878E-2</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
@@ -7676,10 +7676,10 @@
         <f>Сети!A3*100%/Сети!B3</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="78">
         <f>SUM(B16:B18)/COUNTA(B16:B18)*100%</f>
         <v>2.3809523809523808E-2</v>
       </c>
@@ -7693,8 +7693,8 @@
         <f>Сети!A6*100%/Сети!B6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="73"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="79"/>
     </row>
     <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="str">
@@ -7705,8 +7705,8 @@
         <f>Сети!A9*100%/Сети!B9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="80"/>
     </row>
     <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7734,14 +7734,14 @@
       </c>
       <c r="B22" s="46">
         <f>Spring!A3*100%/Spring!B3</f>
-        <v>3.1578947368421054E-2</v>
-      </c>
-      <c r="C22" s="66" t="s">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="C22" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="75">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
-        <v>7.8947368421052634E-3</v>
+        <v>1.3157894736842105E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7753,8 +7753,8 @@
         <f>Spring!A6*100%/Spring!B6</f>
         <v>0</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="70"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="str">
@@ -7765,8 +7765,8 @@
         <f>Spring!A9*100%/Spring!B9</f>
         <v>0</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="str">
@@ -7777,8 +7777,8 @@
         <f>Spring!A12*100%/Spring!B12</f>
         <v>0</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="71"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="77"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -7829,10 +7829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="102"/>
       <c r="D1" s="56" t="s">
         <v>52</v>
       </c>
@@ -7881,10 +7881,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="104"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -7903,10 +7903,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="104"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -7925,10 +7925,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="102"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -7976,31 +7976,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107">
+      <c r="A3" s="67">
         <v>3</v>
       </c>
-      <c r="B3" s="108">
+      <c r="B3" s="68">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8026,10 +8026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8048,10 +8048,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="102"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -8070,10 +8070,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -8121,10 +8121,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8143,10 +8143,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="102"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -8165,10 +8165,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="104"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -8187,10 +8187,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="102"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -8239,10 +8239,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8261,10 +8261,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="102"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -8286,10 +8286,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -8333,10 +8333,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8366,7 +8366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8378,10 +8378,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="108"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -8393,7 +8393,7 @@
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8">
         <v>95</v>
@@ -8403,10 +8403,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="102"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -8425,10 +8425,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -8447,10 +8447,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="102"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilaevvalentin/Documents/Java_Backend_Cource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB071F38-C388-3F45-BE9A-31A7EF304B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500E11E-7892-4439-B63C-01CEE497EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,7 +1144,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1217,7 +1217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1300,7 +1300,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1425,7 +1425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1481,7 +1481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1526,7 +1526,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1540,7 +1540,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1600,7 +1600,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1687,7 +1687,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1809,7 +1809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -1865,7 +1865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -1910,7 +1910,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1924,7 +1924,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1998,7 +1998,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2095,7 +2095,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2220,7 +2220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2279,7 +2279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2324,7 +2324,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2338,7 +2338,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2398,7 +2398,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2482,7 +2482,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2595,7 +2595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -2651,7 +2651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -2696,7 +2696,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2710,7 +2710,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2770,7 +2770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2874,7 +2874,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2981,7 +2981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3037,7 +3037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3082,7 +3082,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3096,7 +3096,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3162,7 +3162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3249,7 +3249,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3302,7 +3302,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>8.4210526315789472E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3376,7 +3376,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024511"/>
@@ -3435,7 +3435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="954024095"/>
@@ -3480,7 +3480,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7418,26 +7418,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="12" customWidth="1"/>
-    <col min="7" max="8" width="13.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.19921875" style="1"/>
-    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.19921875" style="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="55" t="s">
         <v>24</v>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7461,7 +7461,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="str">
         <f>Java!A1</f>
         <v>Продвинутая Java (курс)</v>
@@ -7486,7 +7486,7 @@
       <c r="H2" s="12"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
         <f>Java!A4</f>
         <v>Java вопросы собеседований</v>
@@ -7502,12 +7502,12 @@
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="str">
         <f>Java!A7</f>
         <v>Практика Java (курс)</v>
@@ -7523,12 +7523,12 @@
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="str">
         <f>Java!A10</f>
         <v>Философия Java (книга)</v>
@@ -7542,17 +7542,17 @@
       <c r="H5" s="12"/>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="60" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>5.0074981961425111E-2</v>
+        <v>4.9003559827762153E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="str">
         <f>АиСД!A1</f>
         <v>Задачи для собеседований Java LeetCode</v>
@@ -7573,11 +7573,11 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>399.40104252871924</v>
+        <v>408.13361458424765</v>
       </c>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="str">
         <f>АиСД!A4</f>
         <v>Алгоритмы и структуры данных (Алишев)</v>
@@ -7593,10 +7593,10 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45158.40104252872</v>
+        <v>45167.133614584251</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="str">
         <f>АиСД!A7</f>
         <v>Книга Грокаем Алгоритмы</v>
@@ -7608,10 +7608,10 @@
       <c r="C9" s="91"/>
       <c r="D9" s="94"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="str">
         <f>'Базы данных'!A1</f>
         <v>PostgreSql (курс)</v>
@@ -7628,7 +7628,7 @@
         <v>0.12021910441117632</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="str">
         <f>'Базы данных'!A4</f>
         <v>Вопросы SQL</v>
@@ -7640,7 +7640,7 @@
       <c r="C12" s="96"/>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="str">
         <f>'Базы данных'!A7</f>
         <v>Задачки SQL (LeetCode)</v>
@@ -7652,7 +7652,7 @@
       <c r="C13" s="96"/>
       <c r="D13" s="70"/>
     </row>
-    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="str">
         <f>'Базы данных'!A10</f>
         <v>Дейт. Введение в системы баз данных (книга)</v>
@@ -7664,10 +7664,10 @@
       <c r="C14" s="97"/>
       <c r="D14" s="71"/>
     </row>
-    <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="str">
         <f>Сети!A1</f>
         <v>Введение в комп. сети (Андрей)</v>
@@ -7684,7 +7684,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="str">
         <f>Сети!A4</f>
         <v>Компьютерные сети (книга)</v>
@@ -7696,7 +7696,7 @@
       <c r="C17" s="99"/>
       <c r="D17" s="79"/>
     </row>
-    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="str">
         <f>Сети!A7</f>
         <v>Вопросы по сетям</v>
@@ -7708,8 +7708,8 @@
       <c r="C18" s="100"/>
       <c r="D18" s="80"/>
     </row>
-    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="str">
         <f>Git!A1</f>
         <v>Git (курс)</v>
@@ -7726,25 +7726,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="str">
         <f>Spring!A1</f>
         <v>Spring (курс)</v>
       </c>
       <c r="B22" s="46">
         <f>Spring!A3*100%/Spring!B3</f>
-        <v>5.2631578947368418E-2</v>
+        <v>8.4210526315789472E-2</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="75">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
-        <v>1.3157894736842105E-2</v>
+        <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="str">
         <f>Spring!A4</f>
         <v>Spring проекты (курс)</v>
@@ -7756,7 +7756,7 @@
       <c r="C23" s="73"/>
       <c r="D23" s="76"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="str">
         <f>Spring!A7</f>
         <v>Spring в действии (книга)</v>
@@ -7768,7 +7768,7 @@
       <c r="C24" s="73"/>
       <c r="D24" s="76"/>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="str">
         <f>Spring!A10</f>
         <v>Spring вопросы на собеседовании</v>
@@ -7780,7 +7780,7 @@
       <c r="C25" s="74"/>
       <c r="D25" s="77"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -7817,18 +7817,18 @@
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.19921875" style="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>9</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>39</v>
       </c>
@@ -7880,13 +7880,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="104"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>18</v>
       </c>
@@ -7902,13 +7902,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="103" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="104"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -7924,13 +7924,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="102"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <f>SUM(E2:E100)</f>
         <v>30</v>
@@ -7968,21 +7968,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="64"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>57</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="67">
         <v>3</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="63"/>
       <c r="B4" s="63"/>
     </row>
@@ -8018,20 +8018,20 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8047,13 +8047,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="102"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8069,13 +8069,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="102"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>74-18</f>
         <v>56</v>
@@ -8113,20 +8113,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>46</v>
       </c>
@@ -8142,13 +8142,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="102"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8164,13 +8164,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="103" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="104"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -8186,13 +8186,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="102"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>55-41</f>
         <v>14</v>
@@ -8231,20 +8231,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -8260,13 +8260,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="102"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8285,13 +8285,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="102"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -8326,19 +8326,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>19</v>
       </c>
@@ -8366,24 +8366,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="108"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8391,9 +8391,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8">
         <v>95</v>
@@ -8402,13 +8402,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="102"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -8424,13 +8424,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="102"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -8446,13 +8446,13 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="102"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>0</v>
       </c>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500E11E-7892-4439-B63C-01CEE497EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD3174-E24E-43B3-8F3B-BB2B09CD1674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1353,7 +1353,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.90697674418604646</c:v>
+                  <c:v>0.93023255813953487</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7418,7 +7418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -7468,14 +7468,14 @@
       </c>
       <c r="B2" s="36">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.90697674418604646</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="C2" s="83" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="86">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.29115200045432599</v>
+        <v>0.29696595394269809</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>54</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>4.9003559827762153E-2</v>
+        <v>4.9366931920785409E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>408.13361458424765</v>
+        <v>405.12949097367783</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45167.133614584251</v>
+        <v>45164.129490973675</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7813,8 +7813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7863,7 +7863,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD3174-E24E-43B3-8F3B-BB2B09CD1674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89229BFA-FDBF-433C-A10B-FBA850A31405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" activeTab="1" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -1353,7 +1353,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.93023255813953487</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.8901098901098897E-2</c:v>
@@ -7418,8 +7418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7468,14 +7468,14 @@
       </c>
       <c r="B2" s="36">
         <f>Java!A3*100%/Java!B3</f>
-        <v>0.93023255813953487</v>
+        <v>1</v>
       </c>
       <c r="C2" s="83" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="86">
         <f>SUM(B2:B5)/COUNTA(B2:B5)*100%</f>
-        <v>0.29696595394269809</v>
+        <v>0.3144078144078144</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>54</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>4.9366931920785409E-2</v>
+        <v>4.4850709510982384E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>405.12949097367783</v>
+        <v>445.92382635781252</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45164.129490973675</v>
+        <v>45204.923826357815</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7813,8 +7813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29483B-5B77-4D6C-8B76-A9E21F260E99}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7863,7 +7863,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6">
         <v>43</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89229BFA-FDBF-433C-A10B-FBA850A31405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4341F5-879D-4FE3-8DBA-D5F08A90F0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" activeTab="7" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -3302,7 +3302,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4210526315789472E-2</c:v>
+                  <c:v>0.1368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7418,7 +7418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>4.4850709510982384E-2</v>
+        <v>4.4349765726190545E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>445.92382635781252</v>
+        <v>450.96066850673566</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45204.923826357815</v>
+        <v>45209.960668506734</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7734,14 +7734,14 @@
       </c>
       <c r="B22" s="46">
         <f>Spring!A3*100%/Spring!B3</f>
-        <v>8.4210526315789472E-2</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="75">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
-        <v>2.1052631578947368E-2</v>
+        <v>3.4210526315789476E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8366,8 +8366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8">
         <v>95</v>

--- a/JavaBackend_progres.xlsx
+++ b/JavaBackend_progres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4341F5-879D-4FE3-8DBA-D5F08A90F0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED05462-091A-4D4E-889B-AFB295C8BA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2865" windowWidth="29685" windowHeight="18240" activeTab="7" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
+    <workbookView xWindow="5325" yWindow="2055" windowWidth="29685" windowHeight="18240" xr2:uid="{81105D1A-FDE8-4E49-86A2-C9991C7F4C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="6" r:id="rId1"/>
@@ -3302,7 +3302,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1368421052631579</c:v>
+                  <c:v>0.24210526315789474</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7418,8 +7418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BAAC1-1469-409E-BF4A-458009279AE4}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">TODAY() - DATE(2022,7,17)</f>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>29</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="F3" s="43">
         <f ca="1">F1-F2</f>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H3" s="12"/>
       <c r="P3" s="18"/>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="F4" s="6">
         <f ca="1">$H$1-TODAY()</f>
-        <v>-14</v>
+        <v>-27</v>
       </c>
       <c r="H4" s="12"/>
       <c r="P4" s="18"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="F6" s="61">
         <f ca="1">SUM($B$2:$B$100)/$F$1</f>
-        <v>4.4349765726190545E-2</v>
+        <v>3.8932710593480885E-2</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F7" s="43">
         <f ca="1">COUNTA(B2:B100)/$F$6</f>
-        <v>450.96066850673566</v>
+        <v>513.70684689364816</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="F8" s="44">
         <f ca="1">DATE(2022,7,17) + $F$7</f>
-        <v>45209.960668506734</v>
+        <v>45272.706846893649</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7734,14 +7734,14 @@
       </c>
       <c r="B22" s="46">
         <f>Spring!A3*100%/Spring!B3</f>
-        <v>0.1368421052631579</v>
+        <v>0.24210526315789474</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="75">
         <f>SUM(B22:B25)/COUNTA(B22:B25)*100%</f>
-        <v>3.4210526315789476E-2</v>
+        <v>6.0526315789473685E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8366,8 +8366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB3B14-49A5-43EF-AB59-F62EEDF89BCA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>95</v>
